--- a/tableauEtatDesLieux.xlsx
+++ b/tableauEtatDesLieux.xlsx
@@ -15,12 +15,12 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="extra" localSheetId="0">Feuil1!$A$276</definedName>
-    <definedName name="internetCHIC" localSheetId="0">Feuil1!$A$281</definedName>
-    <definedName name="intra" localSheetId="0">Feuil1!$A$274</definedName>
-    <definedName name="intranetCHIC" localSheetId="0">Feuil1!$A$279</definedName>
-    <definedName name="liens" localSheetId="0">Feuil1!$A$277</definedName>
-    <definedName name="Net" localSheetId="0">Feuil1!$A$282</definedName>
+    <definedName name="extra" localSheetId="0">Feuil1!$A$275</definedName>
+    <definedName name="internetCHIC" localSheetId="0">Feuil1!$A$280</definedName>
+    <definedName name="intra" localSheetId="0">Feuil1!$A$273</definedName>
+    <definedName name="intranetCHIC" localSheetId="0">Feuil1!$A$278</definedName>
+    <definedName name="liens" localSheetId="0">Feuil1!$A$276</definedName>
+    <definedName name="Net" localSheetId="0">Feuil1!$A$281</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="423">
   <si>
     <t>Le livret d'accueil du personnel</t>
   </si>
@@ -1285,12 +1285,72 @@
   <si>
     <t>Numéro et email du support informatique</t>
   </si>
+  <si>
+    <t>Document Word 2002</t>
+  </si>
+  <si>
+    <t>Document Word 2003</t>
+  </si>
+  <si>
+    <t>Document Powerpoint 2005</t>
+  </si>
+  <si>
+    <t>Documents de 2004 à 2006</t>
+  </si>
+  <si>
+    <t>pdf 2005</t>
+  </si>
+  <si>
+    <t>Document Word 2004</t>
+  </si>
+  <si>
+    <t>pdf 2004</t>
+  </si>
+  <si>
+    <t>Documents Word de 2004 à 2007</t>
+  </si>
+  <si>
+    <t>Powerpoint de 2005</t>
+  </si>
+  <si>
+    <t>pas de lien</t>
+  </si>
+  <si>
+    <t>Documents Word de 2006</t>
+  </si>
+  <si>
+    <t>Documents Word de 2008</t>
+  </si>
+  <si>
+    <t>Document Word de 2003</t>
+  </si>
+  <si>
+    <t>Document Word</t>
+  </si>
+  <si>
+    <t>Document Excel</t>
+  </si>
+  <si>
+    <t>Document Excel et pdf</t>
+  </si>
+  <si>
+    <t>site http://antibiogarde/</t>
+  </si>
+  <si>
+    <t>Page web - documents de 2004 à 2008</t>
+  </si>
+  <si>
+    <t>Lien H.S - Not found</t>
+  </si>
+  <si>
+    <t>https://www.infectiologie.com/fr/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1498,6 +1558,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1578,7 +1662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1656,9 +1740,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1818,17 +1899,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1853,13 +1943,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1910,13 +2000,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1967,13 +2057,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2024,13 +2114,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2081,13 +2171,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2138,13 +2228,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2195,13 +2285,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2252,13 +2342,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2309,13 +2399,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2366,13 +2456,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2685,10 +2775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F369"/>
+  <dimension ref="A1:F368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G369" sqref="G369"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="F276" sqref="F276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2701,14 +2791,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
@@ -2935,14 +3025,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
@@ -2954,28 +3044,27 @@
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="F22" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3222,7 +3311,7 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="79"/>
+      <c r="F44" s="78"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
@@ -3293,7 +3382,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="45" t="s">
         <v>106</v>
       </c>
       <c r="B51" s="4"/>
@@ -3303,97 +3392,113 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="46" t="s">
         <v>89</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="46" t="s">
         <v>90</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="79"/>
+      <c r="F53" s="78" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="46" t="s">
         <v>91</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="79"/>
+      <c r="F54" s="78" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="40" t="s">
         <v>92</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="79"/>
+      <c r="F55" s="78" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="46" t="s">
         <v>93</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="79"/>
+      <c r="F56" s="78" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="40" t="s">
         <v>94</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="79"/>
+      <c r="F57" s="78"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="46" t="s">
         <v>95</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="F58" s="4" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="46" t="s">
         <v>96</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="F59" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="46" t="s">
         <v>97</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="F60" s="4" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="40" t="s">
         <v>98</v>
       </c>
       <c r="B61" s="4"/>
@@ -3403,57 +3508,67 @@
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="48">
+      <c r="A62" s="47">
         <v>37600</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="F62" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="48">
+      <c r="A63" s="47">
         <v>37791</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="48">
+      <c r="A64" s="47">
         <v>38068</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="48">
+      <c r="A65" s="47">
         <v>38265</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
+      <c r="F65" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="48">
+      <c r="A66" s="47">
         <v>38761</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
+      <c r="F66" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="48">
+      <c r="A67" s="47">
         <v>38874</v>
       </c>
       <c r="B67" s="4"/>
@@ -3463,17 +3578,19 @@
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="46" t="s">
         <v>99</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="47" t="s">
+      <c r="A69" s="91" t="s">
         <v>100</v>
       </c>
       <c r="B69" s="4"/>
@@ -3483,54 +3600,64 @@
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="47" t="s">
+      <c r="A70" s="46" t="s">
         <v>101</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="46" t="s">
         <v>102</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="46" t="s">
         <v>103</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="F72" s="4" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="40" t="s">
         <v>104</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="49" t="s">
+      <c r="A74" s="48" t="s">
         <v>105</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
+      <c r="F74" s="4" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
@@ -3543,77 +3670,89 @@
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="50" t="s">
+      <c r="A76" s="90" t="s">
         <v>108</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="79"/>
+      <c r="F76" s="78"/>
     </row>
     <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="50" t="s">
+      <c r="A77" s="49" t="s">
         <v>109</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="79"/>
+      <c r="F77" s="78" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="49" t="s">
         <v>110</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="79"/>
+      <c r="F78" s="78" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="50" t="s">
+      <c r="A79" s="49" t="s">
         <v>111</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="79"/>
+      <c r="F79" s="78" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="51" t="s">
+      <c r="A80" s="50" t="s">
         <v>112</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="79"/>
+      <c r="F80" s="78" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="51" t="s">
+      <c r="A81" s="50" t="s">
         <v>113</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="79"/>
+      <c r="F81" s="78" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="51" t="s">
+      <c r="A82" s="50" t="s">
         <v>114</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="79"/>
+      <c r="F82" s="78" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="51" t="s">
+      <c r="A83" s="89" t="s">
         <v>115</v>
       </c>
       <c r="B83" s="4"/>
@@ -3623,44 +3762,52 @@
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="50" t="s">
+      <c r="A84" s="90" t="s">
         <v>116</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
+      <c r="F84" s="4" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="51" t="s">
+      <c r="A85" s="50" t="s">
         <v>117</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
+      <c r="F85" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="51" t="s">
+      <c r="A86" s="50" t="s">
         <v>118</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
+      <c r="F86" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="87" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="50" t="s">
+      <c r="A87" s="49" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
+      <c r="F87" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
@@ -3673,57 +3820,67 @@
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="28" t="s">
         <v>121</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
+      <c r="F89" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="28" t="s">
         <v>122</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
+      <c r="F90" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="28" t="s">
         <v>123</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
+      <c r="F91" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="29" t="s">
+      <c r="A92" s="28" t="s">
         <v>124</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
+      <c r="F92" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="28" t="s">
         <v>125</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
+      <c r="F93" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="46" t="s">
+      <c r="A94" s="45" t="s">
         <v>126</v>
       </c>
       <c r="B94" s="4"/>
@@ -3733,17 +3890,19 @@
       <c r="F94" s="4"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="29" t="s">
+      <c r="A95" s="28" t="s">
         <v>127</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
+      <c r="F95" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="52" t="s">
+      <c r="A96" s="51" t="s">
         <v>128</v>
       </c>
       <c r="B96" s="4"/>
@@ -3753,84 +3912,100 @@
       <c r="F96" s="4"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="28" t="s">
         <v>129</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
+      <c r="F97" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="28" t="s">
         <v>130</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
+      <c r="F98" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="52" t="s">
+      <c r="A99" s="51" t="s">
         <v>131</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
+      <c r="F99" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="28" t="s">
         <v>132</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
+      <c r="F100" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="29" t="s">
+      <c r="A101" s="28" t="s">
         <v>133</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
+      <c r="F101" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="28" t="s">
         <v>134</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
+      <c r="F102" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="28" t="s">
         <v>135</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
+      <c r="F103" s="4" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="53" t="s">
+      <c r="A104" s="52" t="s">
         <v>136</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
+      <c r="F104" s="4" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="105" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
@@ -3840,10 +4015,12 @@
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
+      <c r="F105" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="45" t="s">
         <v>138</v>
       </c>
       <c r="B106" s="4"/>
@@ -3853,37 +4030,43 @@
       <c r="F106" s="4"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="28" t="s">
         <v>139</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
+      <c r="F107" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="29" t="s">
+      <c r="A108" s="28" t="s">
         <v>140</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
+      <c r="F108" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="109" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="33" t="s">
         <v>141</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
+      <c r="F109" s="4" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="45" t="s">
+      <c r="A110" s="44" t="s">
         <v>142</v>
       </c>
       <c r="B110" s="4"/>
@@ -3893,27 +4076,31 @@
       <c r="F110" s="4"/>
     </row>
     <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="36" t="s">
+      <c r="A111" s="35" t="s">
         <v>143</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
+      <c r="F111" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="36" t="s">
+      <c r="A112" s="35" t="s">
         <v>144</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
+      <c r="F112" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="54" t="s">
+      <c r="A113" s="53" t="s">
         <v>145</v>
       </c>
       <c r="B113" s="4"/>
@@ -3923,7 +4110,7 @@
       <c r="F113" s="4"/>
     </row>
     <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="55" t="s">
+      <c r="A114" s="54" t="s">
         <v>146</v>
       </c>
       <c r="B114" s="4"/>
@@ -3933,2612 +4120,2835 @@
       <c r="F114" s="4"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="56" t="s">
+      <c r="A115" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="B115" s="43"/>
+      <c r="B115" s="42"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
+      <c r="F115" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="57" t="s">
+      <c r="A116" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="B116" s="43"/>
+      <c r="B116" s="42"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
+      <c r="F116" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="56" t="s">
+      <c r="A117" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="B117" s="43"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
+      <c r="F117" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="57" t="s">
+      <c r="A118" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="B118" s="43"/>
+      <c r="B118" s="42"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
+      <c r="F118" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="58"/>
-      <c r="B119" s="43"/>
+      <c r="A119" s="57"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
+      <c r="F119" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="56" t="s">
+      <c r="A120" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="B120" s="44"/>
+      <c r="B120" s="43"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="79"/>
+      <c r="F120" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="58"/>
-      <c r="B121" s="44"/>
+      <c r="A121" s="57"/>
+      <c r="B121" s="43"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="79"/>
+      <c r="F121" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="56" t="s">
+      <c r="A122" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="B122" s="44"/>
+      <c r="B122" s="43"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="79"/>
+      <c r="F122" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="58"/>
-      <c r="B123" s="44"/>
+      <c r="A123" s="57"/>
+      <c r="B123" s="43"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="79"/>
+      <c r="F123" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="56" t="s">
+      <c r="A124" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="B124" s="44"/>
+      <c r="B124" s="43"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="79"/>
+      <c r="F124" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="56" t="s">
+      <c r="A125" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="B125" s="44"/>
+      <c r="B125" s="43"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="79"/>
+      <c r="F125" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="56" t="s">
+      <c r="A126" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="B126" s="44"/>
+      <c r="B126" s="43"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="79"/>
+      <c r="F126" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="56" t="s">
+      <c r="A127" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="B127" s="44"/>
+      <c r="B127" s="43"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="79"/>
+      <c r="F127" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="56" t="s">
+      <c r="A128" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="B128" s="44"/>
+      <c r="B128" s="43"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="79"/>
+      <c r="F128" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="59"/>
-      <c r="B129" s="44"/>
+      <c r="A129" s="58"/>
+      <c r="B129" s="43"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="79"/>
+      <c r="F129" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="56" t="s">
+      <c r="A130" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="B130" s="44"/>
+      <c r="B130" s="43"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="79"/>
+      <c r="F130" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="58"/>
-      <c r="B131" s="44"/>
+      <c r="A131" s="57"/>
+      <c r="B131" s="43"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="79"/>
+      <c r="F131" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="56" t="s">
+      <c r="A132" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="B132" s="44"/>
+      <c r="B132" s="43"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="79"/>
+      <c r="F132" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="60" t="s">
+      <c r="A133" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="B133" s="44"/>
+      <c r="B133" s="43"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="79"/>
+      <c r="F133" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="56" t="s">
+      <c r="A134" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="B134" s="44"/>
+      <c r="B134" s="43"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="79"/>
+      <c r="F134" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="56" t="s">
+      <c r="A135" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="B135" s="44"/>
+      <c r="B135" s="43"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="79"/>
+      <c r="F135" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="56" t="s">
+      <c r="A136" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="B136" s="44"/>
+      <c r="B136" s="43"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="79"/>
+      <c r="F136" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="56" t="s">
+      <c r="A137" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="B137" s="44"/>
+      <c r="B137" s="43"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="79"/>
+      <c r="F137" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="138" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="60" t="s">
+      <c r="A138" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B138" s="44"/>
+      <c r="B138" s="43"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="79"/>
+      <c r="F138" s="78"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="52"/>
+      <c r="A139" s="28" t="s">
+        <v>165</v>
+      </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="79"/>
+      <c r="F139" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="29" t="s">
-        <v>165</v>
+      <c r="A140" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="79"/>
+      <c r="F140" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="29" t="s">
-        <v>166</v>
+      <c r="A141" s="28" t="s">
+        <v>167</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="79"/>
+      <c r="F141" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="29" t="s">
-        <v>167</v>
+      <c r="A142" s="28" t="s">
+        <v>168</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="79"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="29" t="s">
-        <v>168</v>
+      <c r="F142" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="28" t="s">
+        <v>169</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="79"/>
-    </row>
-    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="29" t="s">
-        <v>169</v>
+      <c r="F143" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="28" t="s">
+        <v>170</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="79"/>
+      <c r="F144" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="29" t="s">
-        <v>170</v>
+      <c r="A145" s="28" t="s">
+        <v>171</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="79"/>
+      <c r="F145" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="29" t="s">
-        <v>171</v>
+      <c r="A146" s="28" t="s">
+        <v>172</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="79"/>
+      <c r="F146" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="29" t="s">
-        <v>172</v>
+      <c r="A147" s="28" t="s">
+        <v>173</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="79"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="29" t="s">
-        <v>173</v>
+      <c r="F147" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="28" t="s">
+        <v>174</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="79"/>
-    </row>
-    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="29" t="s">
-        <v>174</v>
+      <c r="F148" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="28" t="s">
+        <v>175</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="79"/>
+      <c r="F149" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="29" t="s">
-        <v>175</v>
+      <c r="A150" s="28" t="s">
+        <v>176</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="79"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="29" t="s">
-        <v>176</v>
+      <c r="F150" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="28" t="s">
+        <v>177</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="79"/>
-    </row>
-    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="29" t="s">
-        <v>177</v>
+      <c r="F151" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="28" t="s">
+        <v>178</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="79"/>
+      <c r="F152" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="29" t="s">
-        <v>178</v>
+      <c r="A153" s="28" t="s">
+        <v>179</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="79"/>
+      <c r="F153" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="29" t="s">
-        <v>179</v>
+      <c r="A154" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="79"/>
+      <c r="F154" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="29" t="s">
-        <v>180</v>
+      <c r="A155" s="28" t="s">
+        <v>181</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="79"/>
+      <c r="F155" s="78" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="29" t="s">
-        <v>181</v>
+      <c r="A156" s="28" t="s">
+        <v>182</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="79"/>
+      <c r="F156" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="29" t="s">
-        <v>182</v>
+      <c r="A157" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="79"/>
+      <c r="F157" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="29" t="s">
-        <v>183</v>
+      <c r="A158" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="79"/>
+      <c r="F158" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="29" t="s">
-        <v>184</v>
+      <c r="A159" s="28" t="s">
+        <v>185</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="79"/>
+      <c r="F159" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="29" t="s">
-        <v>185</v>
+      <c r="A160" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="79"/>
+      <c r="F160" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="29" t="s">
-        <v>186</v>
+      <c r="A161" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="79"/>
+      <c r="F161" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="29" t="s">
-        <v>187</v>
+      <c r="A162" s="28" t="s">
+        <v>188</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="79"/>
+      <c r="F162" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="29" t="s">
-        <v>188</v>
+      <c r="A163" s="28" t="s">
+        <v>189</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="79"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="29" t="s">
-        <v>189</v>
+      <c r="F163" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="28" t="s">
+        <v>190</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="79"/>
-    </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="29" t="s">
-        <v>190</v>
+      <c r="F164" s="78" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="28" t="s">
+        <v>191</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="79"/>
+      <c r="F165" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="29" t="s">
-        <v>191</v>
+      <c r="A166" s="28" t="s">
+        <v>192</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="79"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="29" t="s">
-        <v>192</v>
+      <c r="F166" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="41" t="s">
+        <v>193</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="79"/>
-    </row>
-    <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="42" t="s">
-        <v>193</v>
+      <c r="F167" s="78"/>
+    </row>
+    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="28" t="s">
+        <v>194</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="79"/>
-    </row>
-    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F168" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="79"/>
-    </row>
-    <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="30" t="s">
-        <v>195</v>
+      <c r="F169" s="78"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="28" t="s">
+        <v>196</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="79"/>
+      <c r="F170" s="78" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="29" t="s">
-        <v>196</v>
+      <c r="A171" s="28" t="s">
+        <v>197</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="79"/>
+      <c r="F171" s="78" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="29" t="s">
-        <v>197</v>
+      <c r="A172" s="28" t="s">
+        <v>198</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="79"/>
+      <c r="F172" s="78" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="29" t="s">
-        <v>198</v>
+      <c r="A173" s="28" t="s">
+        <v>199</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="79"/>
+      <c r="F173" s="78" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="29" t="s">
-        <v>199</v>
+      <c r="A174" s="28" t="s">
+        <v>200</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="79"/>
+      <c r="F174" s="78" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="29" t="s">
-        <v>200</v>
+      <c r="A175" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="79"/>
+      <c r="F175" s="78" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="29" t="s">
-        <v>201</v>
+      <c r="A176" s="28" t="s">
+        <v>202</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="79"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="29" t="s">
-        <v>202</v>
+      <c r="F176" s="78" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="41" t="s">
+        <v>5</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="79"/>
-    </row>
-    <row r="178" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="42" t="s">
-        <v>5</v>
+      <c r="F177" s="78"/>
+    </row>
+    <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="28" t="s">
+        <v>203</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="79"/>
-    </row>
-    <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="29" t="s">
-        <v>203</v>
+      <c r="F178" s="78" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="79"/>
+      <c r="F179" s="78" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="29" t="s">
-        <v>204</v>
+      <c r="A180" s="28" t="s">
+        <v>205</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="79"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="79"/>
+      <c r="F180" s="78" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5"/>
       <c r="F182" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5"/>
-      <c r="F183" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F183" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5"/>
-      <c r="F184" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F184" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5"/>
       <c r="F185" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="17" t="s">
-        <v>86</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="25" t="s">
+        <v>208</v>
       </c>
       <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="4" t="s">
-        <v>36</v>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="25" t="s">
-        <v>208</v>
+      <c r="A187" s="30" t="s">
+        <v>209</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="12"/>
       <c r="F187" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="31" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="12"/>
       <c r="F188" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B189" s="4"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="17" t="s">
-        <v>88</v>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="22" t="s">
+        <v>212</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5"/>
-      <c r="F190" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="4"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="70" t="s">
+      <c r="F190" s="4"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="79" t="s">
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="78" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="22" t="s">
+    <row r="192" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="4"/>
-    </row>
-    <row r="194" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="32" t="s">
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="4"/>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="31" t="s">
         <v>216</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="78"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="69" t="s">
+        <v>218</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="79"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="70" t="s">
-        <v>218</v>
+      <c r="F194" s="78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="29" t="s">
+        <v>219</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="79" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="30" t="s">
-        <v>219</v>
+      <c r="F195" s="78"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="79"/>
+      <c r="F196" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="29" t="s">
-        <v>220</v>
+      <c r="A197" s="28" t="s">
+        <v>221</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="79"/>
+      <c r="F197" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="29" t="s">
-        <v>221</v>
+      <c r="A198" s="28" t="s">
+        <v>222</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="79"/>
+      <c r="F198" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="29" t="s">
-        <v>222</v>
+      <c r="A199" s="28" t="s">
+        <v>223</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="79"/>
+      <c r="F199" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="29" t="s">
-        <v>223</v>
+      <c r="A200" s="28" t="s">
+        <v>224</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="79"/>
+      <c r="F200" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="29" t="s">
-        <v>224</v>
+      <c r="A201" s="28" t="s">
+        <v>225</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="79"/>
+      <c r="F201" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="29" t="s">
-        <v>225</v>
+      <c r="A202" s="28" t="s">
+        <v>226</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="79"/>
+      <c r="F202" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="29" t="s">
-        <v>226</v>
+      <c r="A203" s="28" t="s">
+        <v>227</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="79"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="29" t="s">
-        <v>227</v>
+      <c r="F203" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="28" t="s">
+        <v>228</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
-      <c r="F204" s="79"/>
-    </row>
-    <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="29" t="s">
-        <v>228</v>
+      <c r="F204" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="28" t="s">
+        <v>229</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
-      <c r="F205" s="79"/>
+      <c r="F205" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="29" t="s">
-        <v>229</v>
+      <c r="A206" s="28" t="s">
+        <v>230</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
-      <c r="F206" s="79"/>
+      <c r="F206" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="29" t="s">
-        <v>230</v>
+      <c r="A207" s="28" t="s">
+        <v>231</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
-      <c r="F207" s="79"/>
+      <c r="F207" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="29" t="s">
-        <v>231</v>
+      <c r="A208" s="28" t="s">
+        <v>232</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
-      <c r="F208" s="79"/>
+      <c r="F208" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="29" t="s">
-        <v>232</v>
+      <c r="A209" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
-      <c r="F209" s="79"/>
+      <c r="F209" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="29" t="s">
-        <v>233</v>
+      <c r="A210" s="28" t="s">
+        <v>234</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="79"/>
+      <c r="F210" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="29" t="s">
-        <v>234</v>
+      <c r="A211" s="28" t="s">
+        <v>235</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="79"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F211" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="79"/>
-    </row>
-    <row r="213" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="79"/>
+      <c r="F212" s="78"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B213" s="77"/>
+      <c r="C213" s="77"/>
+      <c r="D213" s="77"/>
+      <c r="E213" s="77"/>
+      <c r="F213" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="29" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B214" s="77"/>
+      <c r="C214" s="77"/>
+      <c r="D214" s="77"/>
+      <c r="E214" s="77"/>
+      <c r="F214" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="29" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="79"/>
-    </row>
-    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="27" t="s">
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="78"/>
+    </row>
+    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="74" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="30" t="s">
+      <c r="B216" s="77"/>
+      <c r="C216" s="77"/>
+      <c r="D216" s="77"/>
+      <c r="E216" s="77"/>
+      <c r="F216" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="29" t="s">
         <v>241</v>
+      </c>
+      <c r="B217" s="77"/>
+      <c r="C217" s="77"/>
+      <c r="D217" s="77"/>
+      <c r="E217" s="77"/>
+      <c r="F217" s="78"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
-      <c r="F218" s="79"/>
+      <c r="F218" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="29" t="s">
-        <v>242</v>
-      </c>
+      <c r="A219" s="32"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
-      <c r="F219" s="79"/>
+      <c r="F219" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="33"/>
+      <c r="A220" s="28" t="s">
+        <v>243</v>
+      </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
-      <c r="F220" s="79"/>
+      <c r="F220" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="29" t="s">
-        <v>243</v>
-      </c>
+      <c r="A221" s="32"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
-      <c r="F221" s="79"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="33"/>
+      <c r="F221" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="28" t="s">
+        <v>244</v>
+      </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
-      <c r="F222" s="79"/>
-    </row>
-    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="29" t="s">
-        <v>244</v>
-      </c>
+      <c r="F222" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="32"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
-      <c r="F223" s="79"/>
+      <c r="F223" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="33"/>
+      <c r="A224" s="28" t="s">
+        <v>245</v>
+      </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
-      <c r="F224" s="79"/>
+      <c r="F224" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="29" t="s">
-        <v>245</v>
-      </c>
+      <c r="A225" s="32"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
-      <c r="F225" s="79"/>
+      <c r="F225" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="33"/>
+      <c r="A226" s="28" t="s">
+        <v>246</v>
+      </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
-      <c r="F226" s="79"/>
+      <c r="F226" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="29" t="s">
-        <v>246</v>
-      </c>
+      <c r="A227" s="32"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
-      <c r="F227" s="79"/>
+      <c r="F227" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="33"/>
+      <c r="A228" s="28" t="s">
+        <v>247</v>
+      </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
-      <c r="F228" s="79"/>
+      <c r="F228" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="29" t="s">
-        <v>247</v>
-      </c>
+      <c r="A229" s="32"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
-      <c r="F229" s="79"/>
+      <c r="F229" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="33"/>
+      <c r="A230" s="28" t="s">
+        <v>248</v>
+      </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
-      <c r="F230" s="79"/>
+      <c r="F230" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="29" t="s">
-        <v>248</v>
-      </c>
+      <c r="A231" s="32"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
-      <c r="F231" s="79"/>
+      <c r="F231" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="33"/>
+      <c r="A232" s="28" t="s">
+        <v>249</v>
+      </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
-      <c r="F232" s="79"/>
+      <c r="F232" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="29" t="s">
-        <v>249</v>
-      </c>
+      <c r="A233" s="32"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
-      <c r="F233" s="79"/>
+      <c r="F233" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="33"/>
+      <c r="A234" s="28" t="s">
+        <v>250</v>
+      </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
-      <c r="F234" s="79"/>
+      <c r="F234" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="29" t="s">
-        <v>250</v>
-      </c>
+      <c r="A235" s="32"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
-      <c r="F235" s="79"/>
+      <c r="F235" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="33"/>
+      <c r="A236" s="28" t="s">
+        <v>251</v>
+      </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
-      <c r="F236" s="79"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="29" t="s">
-        <v>251</v>
+      <c r="F236" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="33" t="s">
+        <v>252</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
-      <c r="F237" s="79"/>
+      <c r="F237" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="238" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="34" t="s">
-        <v>252</v>
-      </c>
+      <c r="A238" s="33"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
-      <c r="F238" s="79"/>
+      <c r="F238" s="78"/>
     </row>
     <row r="239" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="34"/>
+      <c r="A239" s="33" t="s">
+        <v>253</v>
+      </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
-      <c r="F239" s="79"/>
+      <c r="F239" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="240" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="34" t="s">
-        <v>253</v>
-      </c>
+      <c r="A240" s="33"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
-      <c r="F240" s="79"/>
+      <c r="F240" s="78"/>
     </row>
     <row r="241" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="34"/>
+      <c r="A241" s="41" t="s">
+        <v>254</v>
+      </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
-      <c r="F241" s="79"/>
-    </row>
-    <row r="242" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="42" t="s">
-        <v>254</v>
+      <c r="F241" s="78"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="27" t="s">
+        <v>255</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
-      <c r="F242" s="79"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="28" t="s">
-        <v>255</v>
+      <c r="F242" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A243" s="34" t="s">
+        <v>256</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
-      <c r="F243" s="79"/>
-    </row>
-    <row r="244" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A244" s="35" t="s">
-        <v>256</v>
-      </c>
+      <c r="F243" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="34"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
-      <c r="F244" s="79"/>
+      <c r="F244" s="78"/>
     </row>
     <row r="245" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A245" s="35"/>
+      <c r="A245" s="34" t="s">
+        <v>257</v>
+      </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
-      <c r="F245" s="79"/>
-    </row>
-    <row r="246" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="35" t="s">
-        <v>257</v>
-      </c>
+      <c r="F245" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
-      <c r="F246" s="79"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F246" s="78"/>
+    </row>
+    <row r="247" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A247" s="36" t="s">
+        <v>258</v>
+      </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
-      <c r="F247" s="79"/>
-    </row>
-    <row r="248" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A248" s="37" t="s">
-        <v>258</v>
+      <c r="F247" s="78"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="69" t="s">
+        <v>265</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
-      <c r="F248" s="79"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="70" t="s">
-        <v>265</v>
+      <c r="F248" s="78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="69" t="s">
+        <v>266</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
-      <c r="F249" s="79" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="70" t="s">
-        <v>266</v>
+      <c r="F249" s="78" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="37" t="s">
+        <v>267</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
-      <c r="F250" s="79" t="s">
-        <v>274</v>
-      </c>
+      <c r="F250" s="78"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="38" t="s">
-        <v>267</v>
+      <c r="A251" s="69" t="s">
+        <v>268</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
-      <c r="F251" s="79"/>
+      <c r="F251" s="78" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="70" t="s">
-        <v>268</v>
+      <c r="A252" s="37" t="s">
+        <v>269</v>
       </c>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
-      <c r="F252" s="79" t="s">
-        <v>275</v>
-      </c>
+      <c r="F252" s="78"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="38" t="s">
-        <v>269</v>
+      <c r="A253" s="69" t="s">
+        <v>270</v>
       </c>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
-      <c r="F253" s="79"/>
+      <c r="F253" s="78" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="70" t="s">
-        <v>270</v>
+      <c r="A254" s="69" t="s">
+        <v>271</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
-      <c r="F254" s="79" t="s">
-        <v>276</v>
+      <c r="F254" s="78" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="70" t="s">
-        <v>271</v>
+      <c r="A255" s="37" t="s">
+        <v>272</v>
       </c>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
-      <c r="F255" s="79" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F255" s="78"/>
+    </row>
+    <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="38" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
-      <c r="F256" s="79"/>
-    </row>
-    <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F256" s="78" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
-      <c r="F257" s="79" t="s">
-        <v>274</v>
+      <c r="F257" s="76" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="40" t="s">
-        <v>279</v>
+      <c r="A258" s="39" t="s">
+        <v>280</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
-      <c r="F258" s="77" t="s">
-        <v>283</v>
+      <c r="F258" s="76" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="40" t="s">
-        <v>280</v>
+      <c r="A259" s="39" t="s">
+        <v>281</v>
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
-      <c r="F259" s="77" t="s">
-        <v>277</v>
+      <c r="F259" s="76" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="40" t="s">
-        <v>281</v>
+      <c r="A260" s="39" t="s">
+        <v>282</v>
       </c>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
-      <c r="F260" s="77" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="40" t="s">
-        <v>282</v>
+      <c r="F260" s="76" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="60" t="s">
+        <v>285</v>
       </c>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
-      <c r="F261" s="77" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F261" s="76" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="61" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
-      <c r="F262" s="77" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="62" t="s">
-        <v>286</v>
+      <c r="F262" s="76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A263" s="40" t="s">
+        <v>287</v>
       </c>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
-      <c r="F263" s="77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A264" s="41" t="s">
-        <v>287</v>
+      <c r="F263" s="76" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="60" t="s">
+        <v>289</v>
       </c>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
-      <c r="F264" s="77" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A265" s="61" t="s">
-        <v>289</v>
+      <c r="F264" s="76" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A265" s="29" t="s">
+        <v>259</v>
       </c>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
-      <c r="F265" s="77" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A266" s="30" t="s">
-        <v>259</v>
+      <c r="F265" s="78"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="35" t="s">
+        <v>260</v>
       </c>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
-      <c r="F266" s="79"/>
+      <c r="F266" s="78" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="36" t="s">
-        <v>260</v>
+      <c r="A267" s="35" t="s">
+        <v>261</v>
       </c>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
-      <c r="F267" s="79" t="s">
-        <v>291</v>
+      <c r="F267" s="78" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="36" t="s">
-        <v>261</v>
-      </c>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
-      <c r="F268" s="79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F268" s="78"/>
+    </row>
+    <row r="269" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A269" s="41" t="s">
+        <v>262</v>
+      </c>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
-      <c r="F269" s="79"/>
-    </row>
-    <row r="270" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A270" s="42" t="s">
-        <v>262</v>
+      <c r="F269" s="78"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="35" t="s">
+        <v>263</v>
       </c>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
-      <c r="F270" s="79"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
-      <c r="F271" s="79" t="s">
+      <c r="F270" s="78" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A272" s="28" t="s">
+    <row r="271" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A271" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="B272" s="63"/>
-      <c r="C272" s="63"/>
-      <c r="D272" s="63"/>
-      <c r="E272" s="63"/>
-      <c r="F272" s="84" t="s">
+      <c r="B271" s="62"/>
+      <c r="C271" s="62"/>
+      <c r="D271" s="62"/>
+      <c r="E271" s="62"/>
+      <c r="F271" s="83" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A273" s="87" t="s">
+    <row r="272" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A272" s="86" t="s">
         <v>294</v>
       </c>
-      <c r="B273" s="87"/>
-      <c r="C273" s="87"/>
-      <c r="D273" s="87"/>
-      <c r="E273" s="87"/>
-      <c r="F273" s="87"/>
-    </row>
-    <row r="274" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B272" s="86"/>
+      <c r="C272" s="86"/>
+      <c r="D272" s="86"/>
+      <c r="E272" s="86"/>
+      <c r="F272" s="86"/>
+    </row>
+    <row r="273" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="78" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="65" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
-      <c r="F274" s="79"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="66" t="s">
-        <v>296</v>
+      <c r="F274" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="64" t="s">
+        <v>297</v>
       </c>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
-      <c r="F275" s="79" t="s">
-        <v>299</v>
+      <c r="F275" s="78" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A276" s="65" t="s">
-        <v>297</v>
+      <c r="A276" s="64" t="s">
+        <v>298</v>
       </c>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
-      <c r="F276" s="79"/>
-    </row>
-    <row r="277" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A277" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
-      <c r="D277" s="1"/>
-      <c r="E277" s="1"/>
-      <c r="F277" s="79"/>
-    </row>
-    <row r="278" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A278" s="87" t="s">
+      <c r="F276" s="78" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A277" s="86" t="s">
         <v>300</v>
       </c>
-      <c r="B278" s="87"/>
-      <c r="C278" s="87"/>
-      <c r="D278" s="87"/>
-      <c r="E278" s="87"/>
-      <c r="F278" s="87"/>
-    </row>
-    <row r="279" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A279" s="65" t="s">
+      <c r="B277" s="86"/>
+      <c r="C277" s="86"/>
+      <c r="D277" s="86"/>
+      <c r="E277" s="86"/>
+      <c r="F277" s="86"/>
+    </row>
+    <row r="278" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="64" t="s">
         <v>301</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="78"/>
+    </row>
+    <row r="279" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A279" s="66" t="s">
+        <v>302</v>
       </c>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
-      <c r="F279" s="79"/>
-    </row>
-    <row r="280" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A280" s="67" t="s">
-        <v>302</v>
+      <c r="F279" s="78" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="64" t="s">
+        <v>304</v>
       </c>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
-      <c r="F280" s="79" t="s">
-        <v>303</v>
-      </c>
+      <c r="F280" s="78"/>
     </row>
     <row r="281" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A281" s="65" t="s">
-        <v>304</v>
+      <c r="A281" s="64" t="s">
+        <v>305</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
-      <c r="F281" s="79"/>
-    </row>
-    <row r="282" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A282" s="65" t="s">
-        <v>305</v>
-      </c>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="1"/>
-      <c r="E282" s="1"/>
-      <c r="F282" s="79"/>
-    </row>
-    <row r="283" spans="1:6" s="68" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A283" s="87" t="s">
+      <c r="F281" s="78"/>
+    </row>
+    <row r="282" spans="1:6" s="67" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A282" s="86" t="s">
         <v>358</v>
       </c>
-      <c r="B283" s="87"/>
-      <c r="C283" s="87"/>
-      <c r="D283" s="87"/>
-      <c r="E283" s="87"/>
-      <c r="F283" s="87"/>
-    </row>
-    <row r="284" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B282" s="86"/>
+      <c r="C282" s="86"/>
+      <c r="D282" s="86"/>
+      <c r="E282" s="86"/>
+      <c r="F282" s="86"/>
+    </row>
+    <row r="283" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A283" s="71" t="s">
+        <v>307</v>
+      </c>
+      <c r="B283" s="68"/>
+      <c r="C283" s="68"/>
+      <c r="D283" s="68"/>
+      <c r="E283" s="68"/>
+      <c r="F283" s="78"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="72" t="s">
-        <v>307</v>
-      </c>
-      <c r="B284" s="69"/>
-      <c r="C284" s="69"/>
-      <c r="D284" s="69"/>
-      <c r="E284" s="69"/>
-      <c r="F284" s="79"/>
+        <v>308</v>
+      </c>
+      <c r="B284" s="68"/>
+      <c r="C284" s="68"/>
+      <c r="D284" s="68"/>
+      <c r="E284" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="F284" s="78"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="73" t="s">
-        <v>308</v>
-      </c>
-      <c r="B285" s="69"/>
-      <c r="C285" s="69"/>
-      <c r="D285" s="69"/>
-      <c r="E285" s="71" t="s">
+      <c r="A285" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="B285" s="68"/>
+      <c r="C285" s="68"/>
+      <c r="D285" s="68"/>
+      <c r="E285" s="70"/>
+      <c r="F285" s="78"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="B286" s="68"/>
+      <c r="C286" s="68"/>
+      <c r="D286" s="68"/>
+      <c r="E286" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="F286" s="78"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="72" t="s">
+        <v>313</v>
+      </c>
+      <c r="B287" s="68"/>
+      <c r="C287" s="68"/>
+      <c r="D287" s="68"/>
+      <c r="E287" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="F287" s="78"/>
+    </row>
+    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A288" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="B288" s="68"/>
+      <c r="C288" s="68"/>
+      <c r="D288" s="68"/>
+      <c r="E288" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="F285" s="79"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="73" t="s">
-        <v>310</v>
-      </c>
-      <c r="B286" s="69"/>
-      <c r="C286" s="69"/>
-      <c r="D286" s="69"/>
-      <c r="E286" s="71"/>
-      <c r="F286" s="79"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="73" t="s">
-        <v>311</v>
-      </c>
-      <c r="B287" s="69"/>
-      <c r="C287" s="69"/>
-      <c r="D287" s="69"/>
-      <c r="E287" s="71" t="s">
-        <v>312</v>
-      </c>
-      <c r="F287" s="79"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="73" t="s">
-        <v>313</v>
-      </c>
-      <c r="B288" s="69"/>
-      <c r="C288" s="69"/>
-      <c r="D288" s="69"/>
-      <c r="E288" s="71" t="s">
-        <v>312</v>
-      </c>
-      <c r="F288" s="79"/>
-    </row>
-    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="73" t="s">
-        <v>314</v>
-      </c>
-      <c r="B289" s="69"/>
-      <c r="C289" s="69"/>
-      <c r="D289" s="69"/>
-      <c r="E289" s="71" t="s">
+      <c r="F288" s="78"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="72" t="s">
+        <v>315</v>
+      </c>
+      <c r="B289" s="68"/>
+      <c r="C289" s="68"/>
+      <c r="D289" s="68"/>
+      <c r="E289" s="70" t="s">
+        <v>316</v>
+      </c>
+      <c r="F289" s="78"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="72" t="s">
+        <v>317</v>
+      </c>
+      <c r="B290" s="68"/>
+      <c r="C290" s="68"/>
+      <c r="D290" s="68"/>
+      <c r="E290" s="70" t="s">
+        <v>318</v>
+      </c>
+      <c r="F290" s="78"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="72" t="s">
+        <v>319</v>
+      </c>
+      <c r="B291" s="68"/>
+      <c r="C291" s="68"/>
+      <c r="D291" s="68"/>
+      <c r="E291" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="F289" s="79"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="73" t="s">
-        <v>315</v>
-      </c>
-      <c r="B290" s="69"/>
-      <c r="C290" s="69"/>
-      <c r="D290" s="69"/>
-      <c r="E290" s="71" t="s">
+      <c r="F291" s="78"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="72" t="s">
+        <v>320</v>
+      </c>
+      <c r="B292" s="68"/>
+      <c r="C292" s="68"/>
+      <c r="D292" s="68"/>
+      <c r="E292" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="F290" s="79"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="73" t="s">
-        <v>317</v>
-      </c>
-      <c r="B291" s="69"/>
-      <c r="C291" s="69"/>
-      <c r="D291" s="69"/>
-      <c r="E291" s="71" t="s">
-        <v>318</v>
-      </c>
-      <c r="F291" s="79"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="73" t="s">
-        <v>319</v>
-      </c>
-      <c r="B292" s="69"/>
-      <c r="C292" s="69"/>
-      <c r="D292" s="69"/>
-      <c r="E292" s="71" t="s">
+      <c r="F292" s="78"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="72" t="s">
+        <v>321</v>
+      </c>
+      <c r="B293" s="68"/>
+      <c r="C293" s="68"/>
+      <c r="D293" s="68"/>
+      <c r="E293" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="F292" s="79"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="73" t="s">
-        <v>320</v>
-      </c>
-      <c r="B293" s="69"/>
-      <c r="C293" s="69"/>
-      <c r="D293" s="69"/>
-      <c r="E293" s="71" t="s">
+      <c r="F293" s="78"/>
+    </row>
+    <row r="294" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="72" t="s">
+        <v>322</v>
+      </c>
+      <c r="B294" s="68"/>
+      <c r="C294" s="68"/>
+      <c r="D294" s="68"/>
+      <c r="E294" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="F293" s="79"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="73" t="s">
-        <v>321</v>
-      </c>
-      <c r="B294" s="69"/>
-      <c r="C294" s="69"/>
-      <c r="D294" s="69"/>
-      <c r="E294" s="71" t="s">
-        <v>309</v>
-      </c>
-      <c r="F294" s="79"/>
-    </row>
-    <row r="295" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="73" t="s">
-        <v>322</v>
-      </c>
-      <c r="B295" s="69"/>
-      <c r="C295" s="69"/>
-      <c r="D295" s="69"/>
-      <c r="E295" s="71" t="s">
-        <v>316</v>
-      </c>
-      <c r="F295" s="79"/>
-    </row>
-    <row r="296" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A296" s="72" t="s">
+      <c r="F294" s="78"/>
+    </row>
+    <row r="295" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A295" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="B296" s="69"/>
-      <c r="C296" s="69"/>
-      <c r="D296" s="69"/>
-      <c r="E296" s="69"/>
-      <c r="F296" s="79"/>
+      <c r="B295" s="68"/>
+      <c r="C295" s="68"/>
+      <c r="D295" s="68"/>
+      <c r="E295" s="68"/>
+      <c r="F295" s="78"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="B296" s="68"/>
+      <c r="C296" s="68"/>
+      <c r="D296" s="68"/>
+      <c r="E296" s="68"/>
+      <c r="F296" s="78"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="74" t="s">
-        <v>324</v>
-      </c>
-      <c r="B297" s="69"/>
-      <c r="C297" s="69"/>
-      <c r="D297" s="69"/>
-      <c r="E297" s="69"/>
-      <c r="F297" s="79"/>
+      <c r="A297" s="73" t="s">
+        <v>325</v>
+      </c>
+      <c r="B297" s="68"/>
+      <c r="C297" s="68"/>
+      <c r="D297" s="68"/>
+      <c r="E297" s="68"/>
+      <c r="F297" s="78"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="74" t="s">
-        <v>325</v>
-      </c>
-      <c r="B298" s="69"/>
-      <c r="C298" s="69"/>
-      <c r="D298" s="69"/>
-      <c r="E298" s="69"/>
-      <c r="F298" s="79"/>
+        <v>326</v>
+      </c>
+      <c r="B298" s="68"/>
+      <c r="C298" s="68"/>
+      <c r="D298" s="68"/>
+      <c r="E298" s="68"/>
+      <c r="F298" s="78"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="75" t="s">
-        <v>326</v>
-      </c>
-      <c r="B299" s="69"/>
-      <c r="C299" s="69"/>
-      <c r="D299" s="69"/>
-      <c r="E299" s="69"/>
-      <c r="F299" s="79"/>
+      <c r="A299" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="B299" s="68"/>
+      <c r="C299" s="68"/>
+      <c r="D299" s="68"/>
+      <c r="E299" s="68"/>
+      <c r="F299" s="78"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="75" t="s">
-        <v>327</v>
-      </c>
-      <c r="B300" s="69"/>
-      <c r="C300" s="69"/>
-      <c r="D300" s="69"/>
-      <c r="E300" s="69"/>
-      <c r="F300" s="79"/>
+      <c r="A300" s="74" t="s">
+        <v>328</v>
+      </c>
+      <c r="B300" s="68"/>
+      <c r="C300" s="68"/>
+      <c r="D300" s="68"/>
+      <c r="E300" s="68"/>
+      <c r="F300" s="78"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="75" t="s">
-        <v>328</v>
-      </c>
-      <c r="B301" s="69"/>
-      <c r="C301" s="69"/>
-      <c r="D301" s="69"/>
-      <c r="E301" s="69"/>
-      <c r="F301" s="79"/>
+      <c r="A301" s="74" t="s">
+        <v>329</v>
+      </c>
+      <c r="B301" s="68"/>
+      <c r="C301" s="68"/>
+      <c r="D301" s="68"/>
+      <c r="E301" s="68"/>
+      <c r="F301" s="78"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="75" t="s">
-        <v>329</v>
-      </c>
-      <c r="B302" s="69"/>
-      <c r="C302" s="69"/>
-      <c r="D302" s="69"/>
-      <c r="E302" s="69"/>
-      <c r="F302" s="79"/>
+      <c r="A302" s="74" t="s">
+        <v>330</v>
+      </c>
+      <c r="B302" s="68"/>
+      <c r="C302" s="68"/>
+      <c r="D302" s="68"/>
+      <c r="E302" s="68"/>
+      <c r="F302" s="78"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="B303" s="69"/>
-      <c r="C303" s="69"/>
-      <c r="D303" s="69"/>
-      <c r="E303" s="69"/>
-      <c r="F303" s="79"/>
+      <c r="A303" s="74" t="s">
+        <v>331</v>
+      </c>
+      <c r="B303" s="68"/>
+      <c r="C303" s="68"/>
+      <c r="D303" s="68"/>
+      <c r="E303" s="68"/>
+      <c r="F303" s="78"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="75" t="s">
-        <v>331</v>
-      </c>
-      <c r="B304" s="69"/>
-      <c r="C304" s="69"/>
-      <c r="D304" s="69"/>
-      <c r="E304" s="69"/>
-      <c r="F304" s="79"/>
+      <c r="A304" s="74" t="s">
+        <v>332</v>
+      </c>
+      <c r="B304" s="68"/>
+      <c r="C304" s="68"/>
+      <c r="D304" s="68"/>
+      <c r="E304" s="68"/>
+      <c r="F304" s="78"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="75" t="s">
-        <v>332</v>
-      </c>
-      <c r="B305" s="69"/>
-      <c r="C305" s="69"/>
-      <c r="D305" s="69"/>
-      <c r="E305" s="69"/>
-      <c r="F305" s="79"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="75" t="s">
+      <c r="A305" s="74" t="s">
         <v>333</v>
       </c>
-      <c r="B306" s="69"/>
-      <c r="C306" s="69"/>
-      <c r="D306" s="69"/>
-      <c r="E306" s="69"/>
-      <c r="F306" s="79"/>
-    </row>
-    <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A307" s="75" t="s">
+      <c r="B305" s="68"/>
+      <c r="C305" s="68"/>
+      <c r="D305" s="68"/>
+      <c r="E305" s="68"/>
+      <c r="F305" s="78"/>
+    </row>
+    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A306" s="74" t="s">
         <v>334</v>
       </c>
-      <c r="B307" s="69"/>
-      <c r="C307" s="69"/>
-      <c r="D307" s="69"/>
-      <c r="E307" s="69"/>
-      <c r="F307" s="79"/>
+      <c r="B306" s="68"/>
+      <c r="C306" s="68"/>
+      <c r="D306" s="68"/>
+      <c r="E306" s="68"/>
+      <c r="F306" s="78"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="74" t="s">
+        <v>335</v>
+      </c>
+      <c r="B307" s="68"/>
+      <c r="C307" s="68"/>
+      <c r="D307" s="68"/>
+      <c r="E307" s="68"/>
+      <c r="F307" s="78"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="75" t="s">
-        <v>335</v>
-      </c>
-      <c r="B308" s="69"/>
-      <c r="C308" s="69"/>
-      <c r="D308" s="69"/>
-      <c r="E308" s="69"/>
-      <c r="F308" s="79"/>
+      <c r="A308" s="74" t="s">
+        <v>336</v>
+      </c>
+      <c r="B308" s="68"/>
+      <c r="C308" s="68"/>
+      <c r="D308" s="68"/>
+      <c r="E308" s="68"/>
+      <c r="F308" s="78"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="75" t="s">
-        <v>336</v>
-      </c>
-      <c r="B309" s="69"/>
-      <c r="C309" s="69"/>
-      <c r="D309" s="69"/>
-      <c r="E309" s="69"/>
-      <c r="F309" s="79"/>
+      <c r="A309" s="74" t="s">
+        <v>337</v>
+      </c>
+      <c r="B309" s="68"/>
+      <c r="C309" s="68"/>
+      <c r="D309" s="68"/>
+      <c r="E309" s="68"/>
+      <c r="F309" s="78"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="75" t="s">
-        <v>337</v>
-      </c>
-      <c r="B310" s="69"/>
-      <c r="C310" s="69"/>
-      <c r="D310" s="69"/>
-      <c r="E310" s="69"/>
-      <c r="F310" s="79"/>
+      <c r="A310" s="74" t="s">
+        <v>338</v>
+      </c>
+      <c r="B310" s="68"/>
+      <c r="C310" s="68"/>
+      <c r="D310" s="68"/>
+      <c r="E310" s="68"/>
+      <c r="F310" s="78"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="75" t="s">
-        <v>338</v>
-      </c>
-      <c r="B311" s="69"/>
-      <c r="C311" s="69"/>
-      <c r="D311" s="69"/>
-      <c r="E311" s="69"/>
-      <c r="F311" s="79"/>
+      <c r="A311" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="B311" s="68"/>
+      <c r="C311" s="68"/>
+      <c r="D311" s="68"/>
+      <c r="E311" s="68"/>
+      <c r="F311" s="78"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="75" t="s">
-        <v>339</v>
-      </c>
-      <c r="B312" s="69"/>
-      <c r="C312" s="69"/>
-      <c r="D312" s="69"/>
-      <c r="E312" s="69"/>
-      <c r="F312" s="79"/>
+      <c r="A312" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="B312" s="68"/>
+      <c r="C312" s="68"/>
+      <c r="D312" s="68"/>
+      <c r="E312" s="68"/>
+      <c r="F312" s="78"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="75" t="s">
-        <v>340</v>
-      </c>
-      <c r="B313" s="69"/>
-      <c r="C313" s="69"/>
-      <c r="D313" s="69"/>
-      <c r="E313" s="69"/>
-      <c r="F313" s="79"/>
+      <c r="A313" s="74" t="s">
+        <v>341</v>
+      </c>
+      <c r="B313" s="68"/>
+      <c r="C313" s="68"/>
+      <c r="D313" s="68"/>
+      <c r="E313" s="68"/>
+      <c r="F313" s="78"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="B314" s="69"/>
-      <c r="C314" s="69"/>
-      <c r="D314" s="69"/>
-      <c r="E314" s="69"/>
-      <c r="F314" s="79"/>
+      <c r="A314" s="74" t="s">
+        <v>342</v>
+      </c>
+      <c r="B314" s="68"/>
+      <c r="C314" s="68"/>
+      <c r="D314" s="68"/>
+      <c r="E314" s="68"/>
+      <c r="F314" s="78"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="75" t="s">
-        <v>342</v>
-      </c>
-      <c r="B315" s="69"/>
-      <c r="C315" s="69"/>
-      <c r="D315" s="69"/>
-      <c r="E315" s="69"/>
-      <c r="F315" s="79"/>
+      <c r="A315" s="74" t="s">
+        <v>343</v>
+      </c>
+      <c r="B315" s="68"/>
+      <c r="C315" s="68"/>
+      <c r="D315" s="68"/>
+      <c r="E315" s="68"/>
+      <c r="F315" s="78"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="75" t="s">
-        <v>343</v>
-      </c>
-      <c r="B316" s="69"/>
-      <c r="C316" s="69"/>
-      <c r="D316" s="69"/>
-      <c r="E316" s="69"/>
-      <c r="F316" s="79"/>
+      <c r="A316" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="B316" s="68"/>
+      <c r="C316" s="68"/>
+      <c r="D316" s="68"/>
+      <c r="E316" s="68"/>
+      <c r="F316" s="78"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="75" t="s">
-        <v>344</v>
-      </c>
-      <c r="B317" s="69"/>
-      <c r="C317" s="69"/>
-      <c r="D317" s="69"/>
-      <c r="E317" s="69"/>
-      <c r="F317" s="79"/>
+      <c r="A317" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="B317" s="68"/>
+      <c r="C317" s="68"/>
+      <c r="D317" s="68"/>
+      <c r="E317" s="68"/>
+      <c r="F317" s="78"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="75" t="s">
-        <v>345</v>
-      </c>
-      <c r="B318" s="69"/>
-      <c r="C318" s="69"/>
-      <c r="D318" s="69"/>
-      <c r="E318" s="69"/>
-      <c r="F318" s="79"/>
+      <c r="A318" s="74" t="s">
+        <v>346</v>
+      </c>
+      <c r="B318" s="68"/>
+      <c r="C318" s="68"/>
+      <c r="D318" s="68"/>
+      <c r="E318" s="68"/>
+      <c r="F318" s="78"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="B319" s="69"/>
-      <c r="C319" s="69"/>
-      <c r="D319" s="69"/>
-      <c r="E319" s="69"/>
-      <c r="F319" s="79"/>
+      <c r="A319" s="74" t="s">
+        <v>347</v>
+      </c>
+      <c r="B319" s="68"/>
+      <c r="C319" s="68"/>
+      <c r="D319" s="68"/>
+      <c r="E319" s="68"/>
+      <c r="F319" s="78"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="75" t="s">
-        <v>347</v>
-      </c>
-      <c r="B320" s="69"/>
-      <c r="C320" s="69"/>
-      <c r="D320" s="69"/>
-      <c r="E320" s="69"/>
-      <c r="F320" s="79"/>
+      <c r="A320" s="74" t="s">
+        <v>348</v>
+      </c>
+      <c r="B320" s="68"/>
+      <c r="C320" s="68"/>
+      <c r="D320" s="68"/>
+      <c r="E320" s="68"/>
+      <c r="F320" s="78"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="75" t="s">
-        <v>348</v>
-      </c>
-      <c r="B321" s="69"/>
-      <c r="C321" s="69"/>
-      <c r="D321" s="69"/>
-      <c r="E321" s="69"/>
-      <c r="F321" s="79"/>
+      <c r="A321" s="74" t="s">
+        <v>349</v>
+      </c>
+      <c r="B321" s="68"/>
+      <c r="C321" s="68"/>
+      <c r="D321" s="68"/>
+      <c r="E321" s="68"/>
+      <c r="F321" s="78"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="75" t="s">
-        <v>349</v>
-      </c>
-      <c r="B322" s="69"/>
-      <c r="C322" s="69"/>
-      <c r="D322" s="69"/>
-      <c r="E322" s="69"/>
-      <c r="F322" s="79"/>
+      <c r="A322" s="74" t="s">
+        <v>350</v>
+      </c>
+      <c r="B322" s="68"/>
+      <c r="C322" s="68"/>
+      <c r="D322" s="68"/>
+      <c r="E322" s="68"/>
+      <c r="F322" s="78"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="75" t="s">
-        <v>350</v>
-      </c>
-      <c r="B323" s="69"/>
-      <c r="C323" s="69"/>
-      <c r="D323" s="69"/>
-      <c r="E323" s="69"/>
-      <c r="F323" s="79"/>
+      <c r="A323" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="B323" s="68"/>
+      <c r="C323" s="68"/>
+      <c r="D323" s="68"/>
+      <c r="E323" s="68"/>
+      <c r="F323" s="78"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="B324" s="69"/>
-      <c r="C324" s="69"/>
-      <c r="D324" s="69"/>
-      <c r="E324" s="69"/>
-      <c r="F324" s="79"/>
+      <c r="A324" s="74" t="s">
+        <v>352</v>
+      </c>
+      <c r="B324" s="68"/>
+      <c r="C324" s="68"/>
+      <c r="D324" s="68"/>
+      <c r="E324" s="68"/>
+      <c r="F324" s="78"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="75" t="s">
-        <v>352</v>
-      </c>
-      <c r="B325" s="69"/>
-      <c r="C325" s="69"/>
-      <c r="D325" s="69"/>
-      <c r="E325" s="69"/>
-      <c r="F325" s="79"/>
+      <c r="A325" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="B325" s="68"/>
+      <c r="C325" s="68"/>
+      <c r="D325" s="68"/>
+      <c r="E325" s="68"/>
+      <c r="F325" s="78"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="75" t="s">
-        <v>353</v>
-      </c>
-      <c r="B326" s="69"/>
-      <c r="C326" s="69"/>
-      <c r="D326" s="69"/>
-      <c r="E326" s="69"/>
-      <c r="F326" s="79"/>
+      <c r="A326" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="B326" s="68"/>
+      <c r="C326" s="68"/>
+      <c r="D326" s="68"/>
+      <c r="E326" s="68"/>
+      <c r="F326" s="78"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="75" t="s">
-        <v>354</v>
-      </c>
-      <c r="B327" s="69"/>
-      <c r="C327" s="69"/>
-      <c r="D327" s="69"/>
-      <c r="E327" s="69"/>
-      <c r="F327" s="79"/>
+      <c r="A327" s="74" t="s">
+        <v>355</v>
+      </c>
+      <c r="B327" s="68"/>
+      <c r="C327" s="68"/>
+      <c r="D327" s="68"/>
+      <c r="E327" s="68"/>
+      <c r="F327" s="78"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="75" t="s">
-        <v>355</v>
-      </c>
-      <c r="B328" s="69"/>
-      <c r="C328" s="69"/>
-      <c r="D328" s="69"/>
-      <c r="E328" s="69"/>
-      <c r="F328" s="79"/>
+      <c r="A328" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="B328" s="68"/>
+      <c r="C328" s="68"/>
+      <c r="D328" s="68"/>
+      <c r="E328" s="68"/>
+      <c r="F328" s="78"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="B329" s="69"/>
-      <c r="C329" s="69"/>
-      <c r="D329" s="69"/>
-      <c r="E329" s="69"/>
-      <c r="F329" s="79"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="76" t="s">
         <v>357</v>
       </c>
-      <c r="B330" s="69"/>
-      <c r="C330" s="69"/>
-      <c r="D330" s="69"/>
-      <c r="E330" s="69"/>
-      <c r="F330" s="79"/>
+      <c r="B329" s="68"/>
+      <c r="C329" s="68"/>
+      <c r="D329" s="68"/>
+      <c r="E329" s="68"/>
+      <c r="F329" s="78"/>
+    </row>
+    <row r="330" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A330" s="86" t="s">
+        <v>306</v>
+      </c>
+      <c r="B330" s="86"/>
+      <c r="C330" s="86"/>
+      <c r="D330" s="86"/>
+      <c r="E330" s="86"/>
+      <c r="F330" s="86"/>
     </row>
     <row r="331" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A331" s="87" t="s">
-        <v>306</v>
-      </c>
-      <c r="B331" s="87"/>
-      <c r="C331" s="87"/>
-      <c r="D331" s="87"/>
-      <c r="E331" s="87"/>
-      <c r="F331" s="87"/>
-    </row>
-    <row r="332" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A332" s="87" t="s">
+      <c r="A331" s="86" t="s">
         <v>359</v>
       </c>
-      <c r="B332" s="87"/>
-      <c r="C332" s="87"/>
-      <c r="D332" s="87"/>
-      <c r="E332" s="87"/>
-      <c r="F332" s="87"/>
+      <c r="B331" s="86"/>
+      <c r="C331" s="86"/>
+      <c r="D331" s="86"/>
+      <c r="E331" s="86"/>
+      <c r="F331" s="86"/>
+    </row>
+    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A332" s="81" t="s">
+        <v>360</v>
+      </c>
+      <c r="B332" s="77"/>
+      <c r="C332" s="77"/>
+      <c r="D332" s="77"/>
+      <c r="E332" s="77"/>
+      <c r="F332" s="78" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A333" s="82" t="s">
-        <v>360</v>
-      </c>
-      <c r="B333" s="78"/>
-      <c r="C333" s="78"/>
-      <c r="D333" s="78"/>
-      <c r="E333" s="78"/>
-      <c r="F333" s="79" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A334" s="82" t="s">
+      <c r="A333" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="B334" s="78"/>
-      <c r="C334" s="78"/>
-      <c r="D334" s="78"/>
-      <c r="E334" s="80"/>
-      <c r="F334" s="79" t="s">
+      <c r="B333" s="77"/>
+      <c r="C333" s="77"/>
+      <c r="D333" s="77"/>
+      <c r="E333" s="79"/>
+      <c r="F333" s="78" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="B334" s="77"/>
+      <c r="C334" s="77"/>
+      <c r="D334" s="77"/>
+      <c r="E334" s="79"/>
+      <c r="F334" s="78" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A335" s="82" t="s">
-        <v>364</v>
-      </c>
-      <c r="B335" s="78"/>
-      <c r="C335" s="78"/>
-      <c r="D335" s="78"/>
-      <c r="E335" s="80"/>
-      <c r="F335" s="79" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A336" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="B336" s="78"/>
-      <c r="C336" s="78"/>
-      <c r="D336" s="78"/>
-      <c r="E336" s="80"/>
-      <c r="F336" s="81" t="s">
+      <c r="B335" s="77"/>
+      <c r="C335" s="77"/>
+      <c r="D335" s="77"/>
+      <c r="E335" s="79"/>
+      <c r="F335" s="80" t="s">
         <v>367</v>
       </c>
     </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="B336" s="77"/>
+      <c r="C336" s="77"/>
+      <c r="D336" s="77"/>
+      <c r="E336" s="77"/>
+      <c r="F336" s="78" t="s">
+        <v>369</v>
+      </c>
+    </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="64" t="s">
-        <v>368</v>
-      </c>
-      <c r="B337" s="78"/>
-      <c r="C337" s="78"/>
-      <c r="D337" s="78"/>
-      <c r="E337" s="78"/>
-      <c r="F337" s="79" t="s">
+      <c r="A337" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="B337" s="77"/>
+      <c r="C337" s="77"/>
+      <c r="D337" s="77"/>
+      <c r="E337" s="77"/>
+      <c r="F337" s="78" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="64" t="s">
-        <v>370</v>
-      </c>
-      <c r="B338" s="78"/>
-      <c r="C338" s="78"/>
-      <c r="D338" s="78"/>
-      <c r="E338" s="78"/>
-      <c r="F338" s="79" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A339" s="87" t="s">
+    <row r="338" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A338" s="86" t="s">
         <v>371</v>
       </c>
-      <c r="B339" s="87"/>
-      <c r="C339" s="87"/>
-      <c r="D339" s="87"/>
-      <c r="E339" s="87"/>
-      <c r="F339" s="87"/>
-    </row>
-    <row r="340" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A340" s="88" t="s">
+      <c r="B338" s="86"/>
+      <c r="C338" s="86"/>
+      <c r="D338" s="86"/>
+      <c r="E338" s="86"/>
+      <c r="F338" s="86"/>
+    </row>
+    <row r="339" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A339" s="84" t="s">
         <v>372</v>
       </c>
-      <c r="B340" s="78"/>
-      <c r="C340" s="78"/>
-      <c r="D340" s="78"/>
-      <c r="E340" s="78"/>
-      <c r="F340" s="79"/>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="64" t="s">
+      <c r="B339" s="77"/>
+      <c r="C339" s="77"/>
+      <c r="D339" s="77"/>
+      <c r="E339" s="77"/>
+      <c r="F339" s="78"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="B341" s="78"/>
-      <c r="C341" s="78"/>
-      <c r="D341" s="78"/>
-      <c r="E341" s="78"/>
-      <c r="F341" s="79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A342" s="88" t="s">
+      <c r="B340" s="77"/>
+      <c r="C340" s="77"/>
+      <c r="D340" s="77"/>
+      <c r="E340" s="77"/>
+      <c r="F340" s="78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A341" s="84" t="s">
         <v>374</v>
       </c>
-      <c r="B342" s="78"/>
-      <c r="C342" s="78"/>
-      <c r="D342" s="78"/>
-      <c r="E342" s="78"/>
-      <c r="F342" s="79"/>
+      <c r="B341" s="77"/>
+      <c r="C341" s="77"/>
+      <c r="D341" s="77"/>
+      <c r="E341" s="77"/>
+      <c r="F341" s="78"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="B342" s="77"/>
+      <c r="C342" s="77"/>
+      <c r="D342" s="77"/>
+      <c r="E342" s="77"/>
+      <c r="F342" s="78" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="B343" s="78"/>
-      <c r="C343" s="78"/>
-      <c r="D343" s="78"/>
-      <c r="E343" s="78"/>
-      <c r="F343" s="79" t="s">
+      <c r="A343" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="B343" s="77"/>
+      <c r="C343" s="77"/>
+      <c r="D343" s="77"/>
+      <c r="E343" s="77"/>
+      <c r="F343" s="78" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="64" t="s">
-        <v>376</v>
-      </c>
-      <c r="B344" s="78"/>
-      <c r="C344" s="78"/>
-      <c r="D344" s="78"/>
-      <c r="E344" s="78"/>
-      <c r="F344" s="79" t="s">
+      <c r="A344" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="B344" s="77"/>
+      <c r="C344" s="77"/>
+      <c r="D344" s="77"/>
+      <c r="E344" s="77"/>
+      <c r="F344" s="78" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="64" t="s">
-        <v>377</v>
-      </c>
-      <c r="B345" s="78"/>
-      <c r="C345" s="78"/>
-      <c r="D345" s="78"/>
-      <c r="E345" s="78"/>
-      <c r="F345" s="79" t="s">
+      <c r="A345" s="63" t="s">
+        <v>378</v>
+      </c>
+      <c r="B345" s="77"/>
+      <c r="C345" s="77"/>
+      <c r="D345" s="77"/>
+      <c r="E345" s="77"/>
+      <c r="F345" s="78" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="64" t="s">
-        <v>378</v>
-      </c>
-      <c r="B346" s="78"/>
-      <c r="C346" s="78"/>
-      <c r="D346" s="78"/>
-      <c r="E346" s="78"/>
-      <c r="F346" s="79" t="s">
+      <c r="A346" s="63" t="s">
+        <v>379</v>
+      </c>
+      <c r="B346" s="77"/>
+      <c r="C346" s="77"/>
+      <c r="D346" s="77"/>
+      <c r="E346" s="77"/>
+      <c r="F346" s="78" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="64" t="s">
-        <v>379</v>
-      </c>
-      <c r="B347" s="78"/>
-      <c r="C347" s="78"/>
-      <c r="D347" s="78"/>
-      <c r="E347" s="78"/>
-      <c r="F347" s="79" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A348" s="87" t="s">
+    <row r="347" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A347" s="86" t="s">
         <v>381</v>
       </c>
-      <c r="B348" s="87"/>
-      <c r="C348" s="87"/>
-      <c r="D348" s="87"/>
-      <c r="E348" s="87"/>
-      <c r="F348" s="87"/>
-    </row>
-    <row r="349" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A349" s="89" t="s">
+      <c r="B347" s="86"/>
+      <c r="C347" s="86"/>
+      <c r="D347" s="86"/>
+      <c r="E347" s="86"/>
+      <c r="F347" s="86"/>
+    </row>
+    <row r="348" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A348" s="85" t="s">
         <v>382</v>
       </c>
     </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="B349" s="77"/>
+      <c r="C349" s="77"/>
+      <c r="D349" s="77"/>
+      <c r="E349" s="77"/>
+      <c r="F349" s="78"/>
+    </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="79" t="s">
-        <v>383</v>
-      </c>
-      <c r="B350" s="78"/>
-      <c r="C350" s="78"/>
-      <c r="D350" s="78"/>
-      <c r="E350" s="78"/>
-      <c r="F350" s="79"/>
+      <c r="A350" s="78" t="s">
+        <v>384</v>
+      </c>
+      <c r="B350" s="77"/>
+      <c r="C350" s="77"/>
+      <c r="D350" s="77"/>
+      <c r="E350" s="77"/>
+      <c r="F350" s="78"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="79" t="s">
-        <v>384</v>
-      </c>
-      <c r="B351" s="78"/>
-      <c r="C351" s="78"/>
-      <c r="D351" s="78"/>
-      <c r="E351" s="78"/>
-      <c r="F351" s="79"/>
+      <c r="A351" s="78" t="s">
+        <v>385</v>
+      </c>
+      <c r="B351" s="77"/>
+      <c r="C351" s="77"/>
+      <c r="D351" s="77"/>
+      <c r="E351" s="77"/>
+      <c r="F351" s="78"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="B352" s="78"/>
-      <c r="C352" s="78"/>
-      <c r="D352" s="78"/>
-      <c r="E352" s="78"/>
-      <c r="F352" s="79"/>
+      <c r="A352" s="78" t="s">
+        <v>386</v>
+      </c>
+      <c r="B352" s="77"/>
+      <c r="C352" s="77"/>
+      <c r="D352" s="77"/>
+      <c r="E352" s="77"/>
+      <c r="F352" s="78"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="79" t="s">
-        <v>386</v>
-      </c>
-      <c r="B353" s="78"/>
-      <c r="C353" s="78"/>
-      <c r="D353" s="78"/>
-      <c r="E353" s="78"/>
-      <c r="F353" s="79"/>
+      <c r="A353" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="B353" s="77"/>
+      <c r="C353" s="77"/>
+      <c r="D353" s="77"/>
+      <c r="E353" s="77"/>
+      <c r="F353" s="78"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="79" t="s">
-        <v>387</v>
-      </c>
-      <c r="B354" s="78"/>
-      <c r="C354" s="78"/>
-      <c r="D354" s="78"/>
-      <c r="E354" s="78"/>
-      <c r="F354" s="79"/>
+      <c r="A354" s="78" t="s">
+        <v>388</v>
+      </c>
+      <c r="B354" s="77"/>
+      <c r="C354" s="77"/>
+      <c r="D354" s="77"/>
+      <c r="E354" s="77"/>
+      <c r="F354" s="78"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="79" t="s">
-        <v>388</v>
-      </c>
-      <c r="B355" s="78"/>
-      <c r="C355" s="78"/>
-      <c r="D355" s="78"/>
-      <c r="E355" s="78"/>
-      <c r="F355" s="79"/>
+      <c r="A355" s="78" t="s">
+        <v>389</v>
+      </c>
+      <c r="B355" s="77"/>
+      <c r="C355" s="77"/>
+      <c r="D355" s="77"/>
+      <c r="E355" s="77"/>
+      <c r="F355" s="78"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="79" t="s">
-        <v>389</v>
-      </c>
-      <c r="B356" s="78"/>
-      <c r="C356" s="78"/>
-      <c r="D356" s="78"/>
-      <c r="E356" s="78"/>
-      <c r="F356" s="79"/>
+      <c r="A356" s="78" t="s">
+        <v>390</v>
+      </c>
+      <c r="B356" s="77"/>
+      <c r="C356" s="77"/>
+      <c r="D356" s="77"/>
+      <c r="E356" s="77"/>
+      <c r="F356" s="78"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="79" t="s">
-        <v>390</v>
-      </c>
-      <c r="B357" s="78"/>
-      <c r="C357" s="78"/>
-      <c r="D357" s="78"/>
-      <c r="E357" s="78"/>
-      <c r="F357" s="79"/>
+      <c r="A357" s="78" t="s">
+        <v>391</v>
+      </c>
+      <c r="B357" s="77"/>
+      <c r="C357" s="77"/>
+      <c r="D357" s="77"/>
+      <c r="E357" s="77"/>
+      <c r="F357" s="78"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="79" t="s">
-        <v>391</v>
-      </c>
-      <c r="B358" s="78"/>
-      <c r="C358" s="78"/>
-      <c r="D358" s="78"/>
-      <c r="E358" s="78"/>
-      <c r="F358" s="79"/>
+      <c r="A358" s="78" t="s">
+        <v>392</v>
+      </c>
+      <c r="B358" s="77"/>
+      <c r="C358" s="77"/>
+      <c r="D358" s="77"/>
+      <c r="E358" s="77"/>
+      <c r="F358" s="78"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="79" t="s">
-        <v>392</v>
-      </c>
-      <c r="B359" s="78"/>
-      <c r="C359" s="78"/>
-      <c r="D359" s="78"/>
-      <c r="E359" s="78"/>
-      <c r="F359" s="79"/>
+      <c r="A359" s="78" t="s">
+        <v>393</v>
+      </c>
+      <c r="B359" s="77"/>
+      <c r="C359" s="77"/>
+      <c r="D359" s="77"/>
+      <c r="E359" s="77"/>
+      <c r="F359" s="78"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="79" t="s">
-        <v>393</v>
-      </c>
-      <c r="B360" s="78"/>
-      <c r="C360" s="78"/>
-      <c r="D360" s="78"/>
-      <c r="E360" s="78"/>
-      <c r="F360" s="79"/>
+      <c r="A360" s="78" t="s">
+        <v>394</v>
+      </c>
+      <c r="B360" s="77"/>
+      <c r="C360" s="77"/>
+      <c r="D360" s="77"/>
+      <c r="E360" s="77"/>
+      <c r="F360" s="78"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="79" t="s">
-        <v>394</v>
-      </c>
-      <c r="B361" s="78"/>
-      <c r="C361" s="78"/>
-      <c r="D361" s="78"/>
-      <c r="E361" s="78"/>
-      <c r="F361" s="79"/>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="79" t="s">
+      <c r="A361" s="78" t="s">
         <v>395</v>
       </c>
-      <c r="B362" s="78"/>
-      <c r="C362" s="78"/>
-      <c r="D362" s="78"/>
-      <c r="E362" s="78"/>
-      <c r="F362" s="79"/>
+      <c r="B361" s="77"/>
+      <c r="C361" s="77"/>
+      <c r="D361" s="77"/>
+      <c r="E361" s="77"/>
+      <c r="F361" s="78"/>
+    </row>
+    <row r="362" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A362" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="B362" s="86"/>
+      <c r="C362" s="86"/>
+      <c r="D362" s="86"/>
+      <c r="E362" s="86"/>
+      <c r="F362" s="86"/>
     </row>
     <row r="363" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A363" s="87" t="s">
-        <v>396</v>
-      </c>
-      <c r="B363" s="87"/>
-      <c r="C363" s="87"/>
-      <c r="D363" s="87"/>
-      <c r="E363" s="87"/>
-      <c r="F363" s="87"/>
-    </row>
-    <row r="364" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A364" s="87" t="s">
+      <c r="A363" s="86" t="s">
         <v>397</v>
       </c>
-      <c r="B364" s="87"/>
-      <c r="C364" s="87"/>
-      <c r="D364" s="87"/>
-      <c r="E364" s="87"/>
-      <c r="F364" s="87"/>
+      <c r="B363" s="86"/>
+      <c r="C363" s="86"/>
+      <c r="D363" s="86"/>
+      <c r="E363" s="86"/>
+      <c r="F363" s="86"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="B364" s="77"/>
+      <c r="C364" s="77"/>
+      <c r="D364" s="77"/>
+      <c r="E364" s="77"/>
+      <c r="F364" s="78"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="79" t="s">
-        <v>398</v>
-      </c>
-      <c r="B365" s="78"/>
-      <c r="C365" s="78"/>
-      <c r="D365" s="78"/>
-      <c r="E365" s="78"/>
-      <c r="F365" s="79"/>
+      <c r="A365" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="B365" s="77"/>
+      <c r="C365" s="77"/>
+      <c r="D365" s="77"/>
+      <c r="E365" s="77"/>
+      <c r="F365" s="78"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="79" t="s">
-        <v>399</v>
-      </c>
-      <c r="B366" s="78"/>
-      <c r="C366" s="78"/>
-      <c r="D366" s="78"/>
-      <c r="E366" s="78"/>
-      <c r="F366" s="79"/>
+      <c r="A366" s="78" t="s">
+        <v>400</v>
+      </c>
+      <c r="B366" s="77"/>
+      <c r="C366" s="77"/>
+      <c r="D366" s="77"/>
+      <c r="E366" s="77"/>
+      <c r="F366" s="78"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="79" t="s">
-        <v>400</v>
-      </c>
-      <c r="B367" s="78"/>
-      <c r="C367" s="78"/>
-      <c r="D367" s="78"/>
-      <c r="E367" s="78"/>
-      <c r="F367" s="79"/>
+      <c r="A367" s="78" t="s">
+        <v>401</v>
+      </c>
+      <c r="B367" s="77"/>
+      <c r="C367" s="77"/>
+      <c r="D367" s="77"/>
+      <c r="E367" s="77"/>
+      <c r="F367" s="78"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="79" t="s">
-        <v>401</v>
-      </c>
-      <c r="B368" s="78"/>
-      <c r="C368" s="78"/>
-      <c r="D368" s="78"/>
-      <c r="E368" s="78"/>
-      <c r="F368" s="79"/>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="79" t="s">
+      <c r="A368" s="78" t="s">
         <v>402</v>
       </c>
-      <c r="B369" s="78"/>
-      <c r="C369" s="78"/>
-      <c r="D369" s="78"/>
-      <c r="E369" s="78"/>
-      <c r="F369" s="79"/>
+      <c r="B368" s="77"/>
+      <c r="C368" s="77"/>
+      <c r="D368" s="77"/>
+      <c r="E368" s="77"/>
+      <c r="F368" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A348:F348"/>
-    <mergeCell ref="A363:F363"/>
-    <mergeCell ref="A364:F364"/>
-    <mergeCell ref="A283:F283"/>
-    <mergeCell ref="A331:F331"/>
-    <mergeCell ref="A332:F332"/>
-    <mergeCell ref="A339:F339"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="A278:F278"/>
+    <mergeCell ref="A272:F272"/>
+    <mergeCell ref="A277:F277"/>
+    <mergeCell ref="A347:F347"/>
+    <mergeCell ref="A362:F362"/>
+    <mergeCell ref="A363:F363"/>
+    <mergeCell ref="A282:F282"/>
+    <mergeCell ref="A330:F330"/>
+    <mergeCell ref="A331:F331"/>
+    <mergeCell ref="A338:F338"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A52" r:id="rId1" display="http://intranet.ch-cornouaille.fr/antibio/Politique CAI/charte/charte.doc"/>
@@ -6598,85 +7008,85 @@
     <hyperlink ref="A135" r:id="rId55" display="http://coronaire/antibio/documents/2010-afssaps-spilf-inf_respi.pdf"/>
     <hyperlink ref="A136" r:id="rId56" display="http://coronaire/antibio/documents/pieddiabetique 2006-version courte.pdf"/>
     <hyperlink ref="A137" r:id="rId57" display="http://coronaire/antibio/documents/pieddiabetique2006-version longue.pdf"/>
-    <hyperlink ref="A140" r:id="rId58" display="http://coronaire/antibio/documents/pcmpi/00groupeexperts.pdf"/>
-    <hyperlink ref="A141" r:id="rId59" display="http://coronaire/antibio/documents/pcmpi/01_Introduction.pdf"/>
-    <hyperlink ref="A142" r:id="rId60" display="http://coronaire/antibio/documents/pcmpi/02_Gradation_et_niveau_de_preuve.pdf"/>
-    <hyperlink ref="A143" r:id="rId61" display="http://coronaire/antibio/documents/pcmpi/03_Epidemiologie.pdf"/>
-    <hyperlink ref="A144" r:id="rId62" display="http://coronaire/antibio/documents/pcmpi/04_Depistage_et_nouvelles_methodes_de_prevention_de_l_infection_par_le_VIH.pdf"/>
-    <hyperlink ref="A145" r:id="rId63" display="http://coronaire/antibio/documents/pcmpi/05_Traitement_anti_retroviral.pdf"/>
-    <hyperlink ref="A146" r:id="rId64" display="http://coronaire/antibio/documents/pcmpi/06_Suivi_de_l_adulte_infecte_par_le_VIH.pdf"/>
-    <hyperlink ref="A147" r:id="rId65" display="http://coronaire/antibio/documents/pcmpi/07_Complications_associees_au_VIH_et_aux_traitements.pdf"/>
-    <hyperlink ref="A148" r:id="rId66" display="http://coronaire/antibio/documents/pcmpi/08_Infection_par_le_VIH_et_procreation.pdf"/>
-    <hyperlink ref="A149" r:id="rId67" display="http://coronaire/antibio/documents/pcmpi/09_Prise_en_charge_des_enfants_et_adolescents_infectes_par_le_VIH.pdf"/>
-    <hyperlink ref="A150" r:id="rId68" display="http://coronaire/antibio/documents/pcmpi/10_Primo_infection_par_le_VIH.pdf"/>
-    <hyperlink ref="A151" r:id="rId69" display="http://coronaire/antibio/documents/pcmpi/11_Pharmacologie_des_anti_retroviraux.pdf"/>
-    <hyperlink ref="A152" r:id="rId70" display="http://coronaire/antibio/documents/pcmpi/12_Infections_par_les_VIH-1_sous_types_non-B_VIH-1_du_groupe_O_et_les_VIH-2.pdf"/>
-    <hyperlink ref="A153" r:id="rId71" display="http://coronaire/antibio/documents/pcmpi/13_Resistance_du_VIH_aux_anti_retroviraux.pdf"/>
-    <hyperlink ref="A154" r:id="rId72" display="http://coronaire/antibio/documents/pcmpi/14_Co_infections_par_le_VIH_et_les_virus_des_hepatites.pdf"/>
-    <hyperlink ref="A155" r:id="rId73" display="http://coronaire/antibio/documents/pcmpi/15_Infections_chez_les_personnes_seropositives_pour_le_VIH.pdf"/>
-    <hyperlink ref="A156" r:id="rId74" display="http://coronaire/antibio/documents/pcmpi/16_Tumeurs_au_cours_de_l_infection_par_le_VIH.pdf"/>
-    <hyperlink ref="A157" r:id="rId75" display="http://coronaire/antibio/documents/pcmpi/17_Immunotherapie_de_l_infection_par_le_VIH.pdf"/>
-    <hyperlink ref="A158" r:id="rId76" display="http://coronaire/antibio/documents/pcmpi/18_Prise_en_charge_des_situations_d_exposition_au_risque_viral.pdf"/>
-    <hyperlink ref="A159" r:id="rId77" display="http://coronaire/antibio/documents/pcmpi/19_Conditions_de_vie_pour_un_succes_therapeutique.pdf"/>
-    <hyperlink ref="A160" r:id="rId78" display="http://coronaire/antibio/documents/pcmpi/20_Organisation_des_soins_et_infection_par_le_VIH.pdf"/>
-    <hyperlink ref="A161" r:id="rId79" display="http://coronaire/antibio/documents/pcmpi/21_Annexe_1_Methodologie_de_la_redaction_du_present_rapport.pdf"/>
-    <hyperlink ref="A162" r:id="rId80" display="http://coronaire/antibio/documents/plaies2006-court.pdf"/>
-    <hyperlink ref="A163" r:id="rId81" display="http://coronaire/antibio/documents/plaies2006-long.pdf"/>
-    <hyperlink ref="A164" r:id="rId82" display="http://coronaire/antibio/documents/consensus paludisme 2007.pdf"/>
-    <hyperlink ref="A165" r:id="rId83" display="http://coronaire/antibio/documents/RBU-ANTIFONGIQUES.doc"/>
-    <hyperlink ref="A166" r:id="rId84" display="http://coronaire/antibio/documents/Spondylodiscites2007(texte court).pdf"/>
-    <hyperlink ref="A167" r:id="rId85" display="http://coronaire/antibio/documents/Spondylodiscites2007(Recommandations).pdf"/>
-    <hyperlink ref="A169" r:id="rId86" display="http://coronaire/antibio/documents/meningo_circ_23102006.pdf"/>
-    <hyperlink ref="A171" r:id="rId87" location="1.%20Anti%20infectieux" display="http://coronaire/antibio/diaporama.htm - 1.%20Anti%20infectieux"/>
-    <hyperlink ref="A172" r:id="rId88" location="2.%20Syndrome%20infectieux" display="http://coronaire/antibio/diaporama.htm - 2.%20Syndrome%20infectieux"/>
-    <hyperlink ref="A173" r:id="rId89" location="3.%20Infections%20sp%C3%A9cifiques" display="http://coronaire/antibio/diaporama.htm - 3.%20Infections%20sp%C3%A9cifiques"/>
-    <hyperlink ref="A174" r:id="rId90" location="4.%20Politique%20antibiotique" display="http://coronaire/antibio/diaporama.htm - 4.%20Politique%20antibiotique"/>
-    <hyperlink ref="A175" r:id="rId91" location="5.%20Pr%C3%A9vention%20vaccination" display="http://coronaire/antibio/diaporama.htm - 5.%20Pr%C3%A9vention%20vaccination"/>
-    <hyperlink ref="A176" r:id="rId92" location="6.%20Grippe%20aviaire%20%20%C2%A0" display="http://coronaire/antibio/diaporama.htm - 6.%20Grippe%20aviaire%20%20%C2%A0"/>
-    <hyperlink ref="A177" r:id="rId93" location="6.%20Divers" display="http://coronaire/antibio/diaporama.htm - 6.%20Divers"/>
-    <hyperlink ref="A179" r:id="rId94" display="http://www.infectio-lille.com/index.html"/>
-    <hyperlink ref="A180" r:id="rId95" display="http://www.infectiologie.com/"/>
-    <hyperlink ref="A181" r:id="rId96" display="http://www.afssaps.fr/"/>
-    <hyperlink ref="A197" r:id="rId97" display="http://coronaire/drh/documents/CGOS/Aides remboursables.pdf"/>
-    <hyperlink ref="A198" r:id="rId98" display="http://coronaire/drh/documents/CGOS/Changement de situation et demande %e9tiquettes.pdf"/>
-    <hyperlink ref="A199" r:id="rId99" display="http://coronaire/drh/documents/CGOS/Cong%e9 de pr%e9sence parentale.pdf"/>
-    <hyperlink ref="A200" r:id="rId100" display="http://coronaire/drh/documents/CGOS/Cong%e9 de solidarit%e9 familiale.pdf"/>
-    <hyperlink ref="A201" r:id="rId101" display="http://coronaire/drh/documents/CGOS/D%e9c%e8s.pdf"/>
-    <hyperlink ref="A202" r:id="rId102" display="http://coronaire/drh/documents/CGOS/Enfant handicap%e9.pdf"/>
-    <hyperlink ref="A203" r:id="rId103" display="http://coronaire/drh/documents/CGOS/Aide %e0 la d%e9marche adoption.pdf"/>
-    <hyperlink ref="A204" r:id="rId104" display="http://coronaire/drh/documents/CGOS/Epargne ch%e8ques vacances 2017.pdf"/>
-    <hyperlink ref="A205" r:id="rId105" display="http://coronaire/drh/documents/CGOS/Garde.accueil.activit%e9s p%e9riscolaire pour les enfants de 7 %e0 11 ans.pdf"/>
-    <hyperlink ref="A206" r:id="rId106" display="http://coronaire/drh/documents/CGOS/Naissance adoption.pdf"/>
-    <hyperlink ref="A207" r:id="rId107" display="http://coronaire/drh/documents/CGOS/Vacances adultes et famille.pdf"/>
-    <hyperlink ref="A208" r:id="rId108" display="http://coronaire/drh/documents/CGOS/Vacances enfants et adolescents.pdf"/>
-    <hyperlink ref="A209" r:id="rId109" display="http://coronaire/drh/documents/CGOS/Aide exeptionnelle remboursable et non remboursable.pdf"/>
-    <hyperlink ref="A210" r:id="rId110" display="http://coronaire/drh/documents/CGOS/Aides remboursables du fonds social logement.pdf"/>
-    <hyperlink ref="A211" r:id="rId111" display="http://coronaire/drh/documents/CGOS/CESU.pdf"/>
-    <hyperlink ref="A212" r:id="rId112" display="http://coronaire/drh/documents/CGOS/Cheque_culture.pdf"/>
-    <hyperlink ref="A214" r:id="rId113" display="http://coronaire/drh/documents/chronos infos aux agents.pdf"/>
-    <hyperlink ref="A215" r:id="rId114" display="http://coronaire/drh/documents/chronos Date Cloture Chronos Paie 2018.pdf"/>
-    <hyperlink ref="A219" r:id="rId115" display="http://coronaire/drh/documents/cgtt/Table des annexes du code de GTT.pdf"/>
-    <hyperlink ref="A221" r:id="rId116" display="http://coronaire/drh/documents/cgtt/Annexe 1.1 Obligation annuelle et journali%C3%A8re 2019.pdf"/>
-    <hyperlink ref="A223" r:id="rId117" display="http://coronaire/drh/documents/cgtt/Annexe 2 D%C3%A9compte des jours f%C3%A9ri%C3%A9s samedis et dimanches 2019.pdf"/>
-    <hyperlink ref="A225" r:id="rId118" display="http://coronaire/drh/documents/cgtt/Annexe 3 Temps d%C3%A9placement.pdf"/>
-    <hyperlink ref="A227" r:id="rId119" display="http://coronaire/drh/documents/cgtt/Annexe 4 Autorisation d'absence.pdf"/>
-    <hyperlink ref="A229" r:id="rId120" display="http://coronaire/drh/documents/cgtt/Annexe 5.1 Demande d'alimentation du CET 2019.pdf"/>
-    <hyperlink ref="A231" r:id="rId121" display="http://coronaire/drh/documents/cgtt/Annexe 5.2 Droits dit de remord CET historique 2016.pdf"/>
-    <hyperlink ref="A233" r:id="rId122" display="http://coronaire/drh/documents/cgtt/Annexe 5.3 Utilisation des droits %C3%A9pargn%C3%A9s 2016.pdf"/>
-    <hyperlink ref="A235" r:id="rId123" display="http://coronaire/drh/documents/cgtt/Annexe 5.4 Demande anticip%C3%A9e d'alimentation du CET 2019.pdf"/>
-    <hyperlink ref="A237" r:id="rId124" display="http://coronaire/drh/documents/cgtt/Annexe 6  Don de jours de repos.pdf"/>
-    <hyperlink ref="A271" r:id="rId125" display="http://coronaire/drh/documents/chu_cornouaille_flyer_handicap_2015.pdf"/>
-    <hyperlink ref="A268" r:id="rId126" display="http://coronaire/drh/documents/chsct/BD membres CHSCT.pdf"/>
-    <hyperlink ref="A267" r:id="rId127" display="http://coronaire/drh/documents/chsct/REGLEMENT INTERIEUR CHSCT 28.09.09.pdf"/>
-    <hyperlink ref="A275" r:id="rId128" display="http://192.168.10.4:8080/"/>
-    <hyperlink ref="A337" r:id="rId129" display="http://pdcnt4s1/chic/doc/infos/ldrh/f35h.htm"/>
-    <hyperlink ref="A338" r:id="rId130" display="http://pdcnt4s1/chic/doc/infos/ldrh/f35h.htm"/>
-    <hyperlink ref="A341" r:id="rId131" display="http://intranet.ch-cornouaille.fr/chic/TEL/tryptique_6867i.pdf"/>
-    <hyperlink ref="A343" r:id="rId132" display="http://intranet.ch-cornouaille.fr/chic/TEL/0. Pr%C3%A9sentation du poste.mp4"/>
-    <hyperlink ref="A344" r:id="rId133" display="http://intranet.ch-cornouaille.fr/chic/TEL/1. Mettre en attente musicale.mp4"/>
-    <hyperlink ref="A345" r:id="rId134" display="http://intranet.ch-cornouaille.fr/chic/TEL/3. Renvoyer ses appels.mp4"/>
-    <hyperlink ref="A346" r:id="rId135" display="http://intranet.ch-cornouaille.fr/chic/TEL/4. Programmer son r%C3%A9pertoire.mp4"/>
-    <hyperlink ref="A347" r:id="rId136" display="http://intranet.ch-cornouaille.fr/chic/TEL/5. La messagerie vocale.mp4"/>
+    <hyperlink ref="A139" r:id="rId58" display="http://coronaire/antibio/documents/pcmpi/00groupeexperts.pdf"/>
+    <hyperlink ref="A140" r:id="rId59" display="http://coronaire/antibio/documents/pcmpi/01_Introduction.pdf"/>
+    <hyperlink ref="A141" r:id="rId60" display="http://coronaire/antibio/documents/pcmpi/02_Gradation_et_niveau_de_preuve.pdf"/>
+    <hyperlink ref="A142" r:id="rId61" display="http://coronaire/antibio/documents/pcmpi/03_Epidemiologie.pdf"/>
+    <hyperlink ref="A143" r:id="rId62" display="http://coronaire/antibio/documents/pcmpi/04_Depistage_et_nouvelles_methodes_de_prevention_de_l_infection_par_le_VIH.pdf"/>
+    <hyperlink ref="A144" r:id="rId63" display="http://coronaire/antibio/documents/pcmpi/05_Traitement_anti_retroviral.pdf"/>
+    <hyperlink ref="A145" r:id="rId64" display="http://coronaire/antibio/documents/pcmpi/06_Suivi_de_l_adulte_infecte_par_le_VIH.pdf"/>
+    <hyperlink ref="A146" r:id="rId65" display="http://coronaire/antibio/documents/pcmpi/07_Complications_associees_au_VIH_et_aux_traitements.pdf"/>
+    <hyperlink ref="A147" r:id="rId66" display="http://coronaire/antibio/documents/pcmpi/08_Infection_par_le_VIH_et_procreation.pdf"/>
+    <hyperlink ref="A148" r:id="rId67" display="http://coronaire/antibio/documents/pcmpi/09_Prise_en_charge_des_enfants_et_adolescents_infectes_par_le_VIH.pdf"/>
+    <hyperlink ref="A149" r:id="rId68" display="http://coronaire/antibio/documents/pcmpi/10_Primo_infection_par_le_VIH.pdf"/>
+    <hyperlink ref="A150" r:id="rId69" display="http://coronaire/antibio/documents/pcmpi/11_Pharmacologie_des_anti_retroviraux.pdf"/>
+    <hyperlink ref="A151" r:id="rId70" display="http://coronaire/antibio/documents/pcmpi/12_Infections_par_les_VIH-1_sous_types_non-B_VIH-1_du_groupe_O_et_les_VIH-2.pdf"/>
+    <hyperlink ref="A152" r:id="rId71" display="http://coronaire/antibio/documents/pcmpi/13_Resistance_du_VIH_aux_anti_retroviraux.pdf"/>
+    <hyperlink ref="A153" r:id="rId72" display="http://coronaire/antibio/documents/pcmpi/14_Co_infections_par_le_VIH_et_les_virus_des_hepatites.pdf"/>
+    <hyperlink ref="A154" r:id="rId73" display="http://coronaire/antibio/documents/pcmpi/15_Infections_chez_les_personnes_seropositives_pour_le_VIH.pdf"/>
+    <hyperlink ref="A155" r:id="rId74" display="http://coronaire/antibio/documents/pcmpi/16_Tumeurs_au_cours_de_l_infection_par_le_VIH.pdf"/>
+    <hyperlink ref="A156" r:id="rId75" display="http://coronaire/antibio/documents/pcmpi/17_Immunotherapie_de_l_infection_par_le_VIH.pdf"/>
+    <hyperlink ref="A157" r:id="rId76" display="http://coronaire/antibio/documents/pcmpi/18_Prise_en_charge_des_situations_d_exposition_au_risque_viral.pdf"/>
+    <hyperlink ref="A158" r:id="rId77" display="http://coronaire/antibio/documents/pcmpi/19_Conditions_de_vie_pour_un_succes_therapeutique.pdf"/>
+    <hyperlink ref="A159" r:id="rId78" display="http://coronaire/antibio/documents/pcmpi/20_Organisation_des_soins_et_infection_par_le_VIH.pdf"/>
+    <hyperlink ref="A160" r:id="rId79" display="http://coronaire/antibio/documents/pcmpi/21_Annexe_1_Methodologie_de_la_redaction_du_present_rapport.pdf"/>
+    <hyperlink ref="A161" r:id="rId80" display="http://coronaire/antibio/documents/plaies2006-court.pdf"/>
+    <hyperlink ref="A162" r:id="rId81" display="http://coronaire/antibio/documents/plaies2006-long.pdf"/>
+    <hyperlink ref="A163" r:id="rId82" display="http://coronaire/antibio/documents/consensus paludisme 2007.pdf"/>
+    <hyperlink ref="A164" r:id="rId83" display="http://coronaire/antibio/documents/RBU-ANTIFONGIQUES.doc"/>
+    <hyperlink ref="A165" r:id="rId84" display="http://coronaire/antibio/documents/Spondylodiscites2007(texte court).pdf"/>
+    <hyperlink ref="A166" r:id="rId85" display="http://coronaire/antibio/documents/Spondylodiscites2007(Recommandations).pdf"/>
+    <hyperlink ref="A168" r:id="rId86" display="http://coronaire/antibio/documents/meningo_circ_23102006.pdf"/>
+    <hyperlink ref="A170" r:id="rId87" location="1.%20Anti%20infectieux" display="http://coronaire/antibio/diaporama.htm - 1.%20Anti%20infectieux"/>
+    <hyperlink ref="A171" r:id="rId88" location="2.%20Syndrome%20infectieux" display="http://coronaire/antibio/diaporama.htm - 2.%20Syndrome%20infectieux"/>
+    <hyperlink ref="A172" r:id="rId89" location="3.%20Infections%20sp%C3%A9cifiques" display="http://coronaire/antibio/diaporama.htm - 3.%20Infections%20sp%C3%A9cifiques"/>
+    <hyperlink ref="A173" r:id="rId90" location="4.%20Politique%20antibiotique" display="http://coronaire/antibio/diaporama.htm - 4.%20Politique%20antibiotique"/>
+    <hyperlink ref="A174" r:id="rId91" location="5.%20Pr%C3%A9vention%20vaccination" display="http://coronaire/antibio/diaporama.htm - 5.%20Pr%C3%A9vention%20vaccination"/>
+    <hyperlink ref="A175" r:id="rId92" location="6.%20Grippe%20aviaire%20%20%C2%A0" display="http://coronaire/antibio/diaporama.htm - 6.%20Grippe%20aviaire%20%20%C2%A0"/>
+    <hyperlink ref="A176" r:id="rId93" location="6.%20Divers" display="http://coronaire/antibio/diaporama.htm - 6.%20Divers"/>
+    <hyperlink ref="A178" r:id="rId94" display="http://www.infectio-lille.com/index.html"/>
+    <hyperlink ref="A179" r:id="rId95" display="http://www.infectiologie.com/"/>
+    <hyperlink ref="A180" r:id="rId96" display="http://www.afssaps.fr/"/>
+    <hyperlink ref="A196" r:id="rId97" display="http://coronaire/drh/documents/CGOS/Aides remboursables.pdf"/>
+    <hyperlink ref="A197" r:id="rId98" display="http://coronaire/drh/documents/CGOS/Changement de situation et demande %e9tiquettes.pdf"/>
+    <hyperlink ref="A198" r:id="rId99" display="http://coronaire/drh/documents/CGOS/Cong%e9 de pr%e9sence parentale.pdf"/>
+    <hyperlink ref="A199" r:id="rId100" display="http://coronaire/drh/documents/CGOS/Cong%e9 de solidarit%e9 familiale.pdf"/>
+    <hyperlink ref="A200" r:id="rId101" display="http://coronaire/drh/documents/CGOS/D%e9c%e8s.pdf"/>
+    <hyperlink ref="A201" r:id="rId102" display="http://coronaire/drh/documents/CGOS/Enfant handicap%e9.pdf"/>
+    <hyperlink ref="A202" r:id="rId103" display="http://coronaire/drh/documents/CGOS/Aide %e0 la d%e9marche adoption.pdf"/>
+    <hyperlink ref="A203" r:id="rId104" display="http://coronaire/drh/documents/CGOS/Epargne ch%e8ques vacances 2017.pdf"/>
+    <hyperlink ref="A204" r:id="rId105" display="http://coronaire/drh/documents/CGOS/Garde.accueil.activit%e9s p%e9riscolaire pour les enfants de 7 %e0 11 ans.pdf"/>
+    <hyperlink ref="A205" r:id="rId106" display="http://coronaire/drh/documents/CGOS/Naissance adoption.pdf"/>
+    <hyperlink ref="A206" r:id="rId107" display="http://coronaire/drh/documents/CGOS/Vacances adultes et famille.pdf"/>
+    <hyperlink ref="A207" r:id="rId108" display="http://coronaire/drh/documents/CGOS/Vacances enfants et adolescents.pdf"/>
+    <hyperlink ref="A208" r:id="rId109" display="http://coronaire/drh/documents/CGOS/Aide exeptionnelle remboursable et non remboursable.pdf"/>
+    <hyperlink ref="A209" r:id="rId110" display="http://coronaire/drh/documents/CGOS/Aides remboursables du fonds social logement.pdf"/>
+    <hyperlink ref="A210" r:id="rId111" display="http://coronaire/drh/documents/CGOS/CESU.pdf"/>
+    <hyperlink ref="A211" r:id="rId112" display="http://coronaire/drh/documents/CGOS/Cheque_culture.pdf"/>
+    <hyperlink ref="A213" r:id="rId113" display="http://coronaire/drh/documents/chronos infos aux agents.pdf"/>
+    <hyperlink ref="A214" r:id="rId114" display="http://coronaire/drh/documents/chronos Date Cloture Chronos Paie 2018.pdf"/>
+    <hyperlink ref="A218" r:id="rId115" display="http://coronaire/drh/documents/cgtt/Table des annexes du code de GTT.pdf"/>
+    <hyperlink ref="A220" r:id="rId116" display="http://coronaire/drh/documents/cgtt/Annexe 1.1 Obligation annuelle et journali%C3%A8re 2019.pdf"/>
+    <hyperlink ref="A222" r:id="rId117" display="http://coronaire/drh/documents/cgtt/Annexe 2 D%C3%A9compte des jours f%C3%A9ri%C3%A9s samedis et dimanches 2019.pdf"/>
+    <hyperlink ref="A224" r:id="rId118" display="http://coronaire/drh/documents/cgtt/Annexe 3 Temps d%C3%A9placement.pdf"/>
+    <hyperlink ref="A226" r:id="rId119" display="http://coronaire/drh/documents/cgtt/Annexe 4 Autorisation d'absence.pdf"/>
+    <hyperlink ref="A228" r:id="rId120" display="http://coronaire/drh/documents/cgtt/Annexe 5.1 Demande d'alimentation du CET 2019.pdf"/>
+    <hyperlink ref="A230" r:id="rId121" display="http://coronaire/drh/documents/cgtt/Annexe 5.2 Droits dit de remord CET historique 2016.pdf"/>
+    <hyperlink ref="A232" r:id="rId122" display="http://coronaire/drh/documents/cgtt/Annexe 5.3 Utilisation des droits %C3%A9pargn%C3%A9s 2016.pdf"/>
+    <hyperlink ref="A234" r:id="rId123" display="http://coronaire/drh/documents/cgtt/Annexe 5.4 Demande anticip%C3%A9e d'alimentation du CET 2019.pdf"/>
+    <hyperlink ref="A236" r:id="rId124" display="http://coronaire/drh/documents/cgtt/Annexe 6  Don de jours de repos.pdf"/>
+    <hyperlink ref="A270" r:id="rId125" display="http://coronaire/drh/documents/chu_cornouaille_flyer_handicap_2015.pdf"/>
+    <hyperlink ref="A267" r:id="rId126" display="http://coronaire/drh/documents/chsct/BD membres CHSCT.pdf"/>
+    <hyperlink ref="A266" r:id="rId127" display="http://coronaire/drh/documents/chsct/REGLEMENT INTERIEUR CHSCT 28.09.09.pdf"/>
+    <hyperlink ref="A274" r:id="rId128" display="http://192.168.10.4:8080/"/>
+    <hyperlink ref="A336" r:id="rId129" display="http://pdcnt4s1/chic/doc/infos/ldrh/f35h.htm"/>
+    <hyperlink ref="A337" r:id="rId130" display="http://pdcnt4s1/chic/doc/infos/ldrh/f35h.htm"/>
+    <hyperlink ref="A340" r:id="rId131" display="http://intranet.ch-cornouaille.fr/chic/TEL/tryptique_6867i.pdf"/>
+    <hyperlink ref="A342" r:id="rId132" display="http://intranet.ch-cornouaille.fr/chic/TEL/0. Pr%C3%A9sentation du poste.mp4"/>
+    <hyperlink ref="A343" r:id="rId133" display="http://intranet.ch-cornouaille.fr/chic/TEL/1. Mettre en attente musicale.mp4"/>
+    <hyperlink ref="A344" r:id="rId134" display="http://intranet.ch-cornouaille.fr/chic/TEL/3. Renvoyer ses appels.mp4"/>
+    <hyperlink ref="A345" r:id="rId135" display="http://intranet.ch-cornouaille.fr/chic/TEL/4. Programmer son r%C3%A9pertoire.mp4"/>
+    <hyperlink ref="A346" r:id="rId136" display="http://intranet.ch-cornouaille.fr/chic/TEL/5. La messagerie vocale.mp4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId137"/>
